--- a/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado10\guion02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="200" windowWidth="25600" windowHeight="13900"/>
+    <workbookView xWindow="-181" yWindow="204" windowWidth="25603" windowHeight="13902"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -310,6 +316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Amadís de Gaula</t>
@@ -373,6 +380,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Amadís de Gaula</t>
@@ -400,6 +408,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Amadís</t>
@@ -495,6 +504,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -515,6 +525,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Beatus ille </t>
@@ -535,6 +546,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Carpe diem </t>
@@ -555,6 +567,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Tempus fugit </t>
@@ -595,6 +608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>El Lazarillo de Tormes</t>
@@ -610,6 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>El Lazarillo de Tormes</t>
@@ -682,6 +697,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Soneto XIII </t>
@@ -725,6 +741,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Lazarillo de Tormes</t>
@@ -789,6 +806,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Soneto a Laura </t>
@@ -928,6 +946,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Amadís de Gaula</t>
@@ -943,6 +962,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Amadís </t>
@@ -1290,6 +1310,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1772,98 +1793,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1871,9 +1820,56 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="139">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2284,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2292,3970 +2288,3961 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.5" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="7"/>
-    <col min="10" max="10" width="65.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14" style="9" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" customWidth="1"/>
-    <col min="15" max="15" width="60" style="10" customWidth="1"/>
-    <col min="16" max="16" width="21.1640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="30.5" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="24.265625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="16" customWidth="1"/>
+    <col min="8" max="9" width="4.53125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="65.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" style="53" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" style="53" customWidth="1"/>
+    <col min="13" max="13" width="6" style="53" customWidth="1"/>
+    <col min="14" max="14" width="6" style="16" customWidth="1"/>
+    <col min="15" max="15" width="60" style="16" customWidth="1"/>
+    <col min="16" max="16" width="7.265625" style="2" customWidth="1"/>
+    <col min="17" max="21" width="13.19921875" style="16" customWidth="1"/>
+    <col min="22" max="16384" width="10.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="51" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="17" t="s">
+    <row r="2" spans="1:21" s="19" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="29">
         <v>6</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="46" t="s">
+      <c r="S3" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="T3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="36" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="44" t="s">
+      <c r="N4" s="28"/>
+      <c r="O4" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="29">
         <v>6</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="U4" s="47" t="s">
+      <c r="U4" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="42">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="36" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="10">
         <v>3</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44" t="s">
+      <c r="N5" s="28"/>
+      <c r="O5" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="29">
         <v>6</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="R5" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="70">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="36" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="10">
         <v>4</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44" t="s">
+      <c r="N6" s="28"/>
+      <c r="O6" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="37">
         <v>6</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="70">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="36" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="10">
         <v>5</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="45"/>
-      <c r="O7" s="44" t="s">
+      <c r="N7" s="28"/>
+      <c r="O7" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="37">
         <v>6</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="70">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="36" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="10">
         <v>6</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="44" t="s">
+      <c r="N8" s="28"/>
+      <c r="O8" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="29">
         <v>6</v>
       </c>
-      <c r="R8" s="46" t="s">
+      <c r="R8" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="S8" s="46" t="s">
+      <c r="S8" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="T8" s="46" t="s">
+      <c r="T8" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="U8" s="47" t="s">
+      <c r="U8" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="42">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="36" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="10">
         <v>7</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="44" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="P9" s="43" t="s">
+      <c r="P9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="T9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="28">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="10">
         <v>8</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="49" t="s">
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="46" t="s">
+      <c r="R10" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="S10" s="46" t="s">
+      <c r="S10" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="T10" s="46" t="s">
+      <c r="T10" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="U10" s="47" t="s">
+      <c r="U10" s="30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="84">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="10">
         <v>9</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="48" t="s">
+      <c r="N11" s="28"/>
+      <c r="O11" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="P11" s="43" t="s">
+      <c r="P11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="29">
         <v>6</v>
       </c>
-      <c r="R11" s="46" t="s">
+      <c r="R11" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="46" t="s">
+      <c r="S11" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="T11" s="46" t="s">
+      <c r="T11" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="U11" s="47" t="s">
+      <c r="U11" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="10">
         <v>10</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45" t="s">
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="P12" s="43" t="s">
+      <c r="P12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="U12" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="10">
         <v>11</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="44" t="s">
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="P13" s="43" t="s">
+      <c r="P13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="U13" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="28">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="10">
         <v>12</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="44" t="s">
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="P14" s="43" t="s">
+      <c r="P14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="10">
         <v>13</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="44" t="s">
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="P15" s="43" t="s">
+      <c r="P15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="S15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="U15" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="28">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="10">
         <v>14</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="42" t="s">
+      <c r="L16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45" t="s">
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="10">
         <v>15</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45" t="s">
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="P17" s="43" t="s">
+      <c r="P17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="10">
         <v>16</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="44" t="s">
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="S18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="10">
         <v>17</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="K19" s="41" t="s">
+      <c r="K19" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="44" t="s">
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="P19" s="43" t="s">
+      <c r="P19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="S19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="42">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="36" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="10">
         <v>18</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="42" t="s">
+      <c r="L20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="44" t="s">
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="43" t="s">
+      <c r="P20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="28">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="36" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="10">
         <v>19</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="44" t="s">
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="P21" s="43" t="s">
+      <c r="P21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="28">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="10">
         <v>20</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="44" t="s">
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="P22" s="43" t="s">
+      <c r="P22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R22" s="13" t="s">
+      <c r="R22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="70">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="36" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="10">
         <v>21</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45" t="s">
+      <c r="M23" s="28"/>
+      <c r="N23" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="44" t="s">
+      <c r="O23" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="P23" s="43" t="s">
+      <c r="P23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="37">
         <v>6</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="U23" s="38" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="42">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="36" t="s">
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="10">
         <v>22</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="45" t="s">
+      <c r="M24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="N24" s="45"/>
-      <c r="O24" s="44" t="s">
+      <c r="N24" s="28"/>
+      <c r="O24" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="P24" s="43" t="s">
+      <c r="P24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="37">
         <v>6</v>
       </c>
-      <c r="R24" s="13" t="s">
+      <c r="R24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S24" s="13" t="s">
+      <c r="S24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T24" s="13" t="s">
+      <c r="T24" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A25" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="36" t="s">
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="10">
         <v>23</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="42" t="s">
+      <c r="L25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="44" t="s">
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="P25" s="43" t="s">
+      <c r="P25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="R25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="T25" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="U25" s="38" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="36" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="10">
         <v>24</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="42" t="s">
+      <c r="L26" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="44" t="s">
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="P26" s="43" t="s">
+      <c r="P26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="S26" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="38" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="56">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="36" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="10">
         <v>25</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="42" t="s">
+      <c r="L27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="45" t="s">
+      <c r="M27" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="45"/>
-      <c r="O27" s="44" t="s">
+      <c r="N27" s="28"/>
+      <c r="O27" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="P27" s="43" t="s">
+      <c r="P27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="37">
         <v>6</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="U27" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="84">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="36" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="10">
         <v>26</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="L28" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="45" t="s">
+      <c r="M28" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="N28" s="45"/>
-      <c r="O28" s="44" t="s">
+      <c r="N28" s="28"/>
+      <c r="O28" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="P28" s="43" t="s">
+      <c r="P28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="37">
         <v>6</v>
       </c>
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S28" s="13" t="s">
+      <c r="S28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T28" s="13" t="s">
+      <c r="T28" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="U28" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="56">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="36" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="10">
         <v>27</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="K29" s="41" t="s">
+      <c r="K29" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="42" t="s">
+      <c r="L29" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="28"/>
+      <c r="N29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="44" t="s">
+      <c r="O29" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="P29" s="43" t="s">
+      <c r="P29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="37">
         <v>6</v>
       </c>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="T29" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="38" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="42">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A30" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="50" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="10">
         <v>28</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="K30" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="42" t="s">
+      <c r="L30" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="45" t="s">
+      <c r="M30" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="44" t="s">
+      <c r="N30" s="28"/>
+      <c r="O30" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="P30" s="43" t="s">
+      <c r="P30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="37">
         <v>6</v>
       </c>
-      <c r="R30" s="13" t="s">
+      <c r="R30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="S30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="T30" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="U30" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="28">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="36" t="s">
+      <c r="F31" s="32"/>
+      <c r="G31" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="10">
         <v>29</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L31" s="42" t="s">
+      <c r="L31" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="44" t="s">
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="P31" s="43" t="s">
+      <c r="P31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="R31" s="13" t="s">
+      <c r="R31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="S31" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="T31" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="U31" s="38" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="42">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A32" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="36" t="s">
+      <c r="F32" s="32"/>
+      <c r="G32" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="10">
         <v>30</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="K32" s="41" t="s">
+      <c r="K32" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="42" t="s">
+      <c r="L32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="45" t="s">
+      <c r="M32" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="N32" s="45"/>
-      <c r="O32" s="44" t="s">
+      <c r="N32" s="28"/>
+      <c r="O32" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="P32" s="43" t="s">
+      <c r="P32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="37">
         <v>6</v>
       </c>
-      <c r="R32" s="13" t="s">
+      <c r="R32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S32" s="13" t="s">
+      <c r="S32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U32" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="28">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A33" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="10">
         <v>31</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="K33" s="41" t="s">
+      <c r="K33" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="L33" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="44" t="s">
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="P33" s="43" t="s">
+      <c r="P33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="T33" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="U33" s="38" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="28">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A34" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="10">
         <v>32</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="K34" s="41" t="s">
+      <c r="K34" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="42" t="s">
+      <c r="L34" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="45" t="s">
+      <c r="M34" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="N34" s="45"/>
-      <c r="O34" s="44" t="s">
+      <c r="N34" s="28"/>
+      <c r="O34" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="P34" s="43" t="s">
+      <c r="P34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="37">
         <v>6</v>
       </c>
-      <c r="R34" s="13" t="s">
+      <c r="R34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S34" s="13" t="s">
+      <c r="S34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T34" s="13" t="s">
+      <c r="T34" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="U34" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="28">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="36" t="s">
+      <c r="F35" s="32"/>
+      <c r="G35" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="10">
         <v>33</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="K35" s="41" t="s">
+      <c r="K35" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L35" s="42" t="s">
+      <c r="L35" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="44" t="s">
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="P35" s="43" t="s">
+      <c r="P35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q35" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="R35" s="13" t="s">
+      <c r="R35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S35" s="13" t="s">
+      <c r="S35" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="T35" s="13" t="s">
+      <c r="T35" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="U35" s="38" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="42">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A36" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="36" t="s">
+      <c r="F36" s="32"/>
+      <c r="G36" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="10">
         <v>34</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="K36" s="41" t="s">
+      <c r="K36" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="42" t="s">
+      <c r="L36" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="45" t="s">
+      <c r="M36" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N36" s="45"/>
-      <c r="O36" s="44" t="s">
+      <c r="N36" s="28"/>
+      <c r="O36" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="P36" s="43" t="s">
+      <c r="P36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="37">
         <v>6</v>
       </c>
-      <c r="R36" s="13" t="s">
+      <c r="R36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S36" s="13" t="s">
+      <c r="S36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="U36" s="2" t="s">
+      <c r="U36" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="28">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A37" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="10">
         <v>35</v>
       </c>
-      <c r="I37" s="37" t="s">
+      <c r="I37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J37" s="38" t="s">
+      <c r="J37" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="K37" s="41" t="s">
+      <c r="K37" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L37" s="42" t="s">
+      <c r="L37" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="44" t="s">
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="P37" s="43" t="s">
+      <c r="P37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q37" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="R37" s="13" t="s">
+      <c r="R37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="13" t="s">
+      <c r="S37" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="T37" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="U37" s="38" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A38" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="G38" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="10">
         <v>36</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J38" s="38" t="s">
+      <c r="J38" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="K38" s="41" t="s">
+      <c r="K38" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L38" s="42" t="s">
+      <c r="L38" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="44" t="s">
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="P38" s="43" t="s">
+      <c r="P38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="R38" s="13" t="s">
+      <c r="R38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="T38" s="13" t="s">
+      <c r="T38" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="U38" s="38" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="56">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A39" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="36" t="s">
+      <c r="F39" s="32"/>
+      <c r="G39" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="H39" s="37">
+      <c r="H39" s="10">
         <v>37</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="I39" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J39" s="38" t="s">
+      <c r="J39" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="K39" s="41" t="s">
+      <c r="K39" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="42" t="s">
+      <c r="L39" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="44" t="s">
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="P39" s="43" t="s">
+      <c r="P39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="37">
         <v>6</v>
       </c>
-      <c r="R39" s="13" t="s">
+      <c r="R39" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="13" t="s">
+      <c r="S39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T39" s="13" t="s">
+      <c r="T39" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="U39" s="2" t="s">
+      <c r="U39" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="28">
-      <c r="A40" s="18" t="s">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A40" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="36" t="s">
+      <c r="F40" s="32"/>
+      <c r="G40" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="10">
         <v>38</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J40" s="38" t="s">
+      <c r="J40" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="K40" s="41" t="s">
+      <c r="K40" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="42" t="s">
+      <c r="L40" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="45" t="s">
+      <c r="M40" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="45"/>
-      <c r="O40" s="44" t="s">
+      <c r="N40" s="28"/>
+      <c r="O40" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="P40" s="43" t="s">
+      <c r="P40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="37">
         <v>6</v>
       </c>
-      <c r="R40" s="13" t="s">
+      <c r="R40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S40" s="13" t="s">
+      <c r="S40" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T40" s="13" t="s">
+      <c r="T40" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="U40" s="2" t="s">
+      <c r="U40" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="42">
-      <c r="A41" s="18" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A41" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="38" t="s">
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="H41" s="37">
+      <c r="H41" s="10">
         <v>39</v>
       </c>
-      <c r="I41" s="37" t="s">
+      <c r="I41" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J41" s="38" t="s">
+      <c r="J41" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="K41" s="41" t="s">
+      <c r="K41" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="42" t="s">
+      <c r="L41" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45" t="s">
+      <c r="M41" s="28"/>
+      <c r="N41" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="O41" s="44" t="s">
+      <c r="O41" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="P41" s="43" t="s">
+      <c r="P41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="37">
         <v>6</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S41" s="13" t="s">
+      <c r="S41" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="T41" s="13" t="s">
+      <c r="T41" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="U41" s="2" t="s">
+      <c r="U41" s="38" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="5" customFormat="1" ht="70">
-      <c r="A42" s="18" t="s">
+    <row r="42" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="36" t="s">
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="H42" s="37">
+      <c r="H42" s="10">
         <v>40</v>
       </c>
-      <c r="I42" s="37" t="s">
+      <c r="I42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J42" s="38" t="s">
+      <c r="J42" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="K42" s="41" t="s">
+      <c r="K42" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="L42" s="42" t="s">
+      <c r="L42" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="M42" s="45" t="s">
+      <c r="M42" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="45"/>
-      <c r="O42" s="44" t="s">
+      <c r="N42" s="28"/>
+      <c r="O42" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="P42" s="43" t="s">
+      <c r="P42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="29">
         <v>6</v>
       </c>
-      <c r="R42" s="46" t="s">
+      <c r="R42" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="S42" s="46" t="s">
+      <c r="S42" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="T42" s="46" t="s">
+      <c r="T42" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="U42" s="47" t="s">
+      <c r="U42" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="70">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A43" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="36" t="s">
+      <c r="F43" s="32"/>
+      <c r="G43" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="10">
         <v>41</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J43" s="38" t="s">
+      <c r="J43" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="L43" s="42" t="s">
+      <c r="L43" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="M43" s="45" t="s">
+      <c r="M43" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="N43" s="45"/>
-      <c r="O43" s="44" t="s">
+      <c r="N43" s="28"/>
+      <c r="O43" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="P43" s="43" t="s">
+      <c r="P43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43" s="37">
         <v>6</v>
       </c>
-      <c r="R43" s="13" t="s">
+      <c r="R43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S43" s="13" t="s">
+      <c r="S43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T43" s="13" t="s">
+      <c r="T43" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="U43" s="2" t="s">
+      <c r="U43" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="42">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A44" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="36" t="s">
+      <c r="F44" s="32"/>
+      <c r="G44" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="H44" s="37">
+      <c r="H44" s="10">
         <v>42</v>
       </c>
-      <c r="I44" s="37" t="s">
+      <c r="I44" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J44" s="38" t="s">
+      <c r="J44" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="K44" s="41" t="s">
+      <c r="K44" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="L44" s="42" t="s">
+      <c r="L44" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="M44" s="45" t="s">
+      <c r="M44" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="45"/>
-      <c r="O44" s="44" t="s">
+      <c r="N44" s="28"/>
+      <c r="O44" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="P44" s="43" t="s">
+      <c r="P44" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="37">
         <v>6</v>
       </c>
-      <c r="R44" s="13" t="s">
+      <c r="R44" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S44" s="13" t="s">
+      <c r="S44" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T44" s="13" t="s">
+      <c r="T44" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="U44" s="2" t="s">
+      <c r="U44" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="28">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A45" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="38" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="10">
         <v>43</v>
       </c>
-      <c r="I45" s="37" t="s">
+      <c r="I45" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J45" s="38" t="s">
+      <c r="J45" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="K45" s="41" t="s">
+      <c r="K45" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L45" s="42" t="s">
+      <c r="L45" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="44" t="s">
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="P45" s="43" t="s">
+      <c r="P45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R45" s="13" t="s">
+      <c r="R45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S45" s="13" t="s">
+      <c r="S45" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T45" s="13" t="s">
+      <c r="T45" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="U45" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A46" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="36" t="s">
+      <c r="E46" s="47"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="H46" s="37">
+      <c r="H46" s="10">
         <v>44</v>
       </c>
-      <c r="I46" s="37" t="s">
+      <c r="I46" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J46" s="38" t="s">
+      <c r="J46" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="K46" s="41" t="s">
+      <c r="K46" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L46" s="42" t="s">
+      <c r="L46" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="44" t="s">
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="P46" s="43" t="s">
+      <c r="P46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R46" s="13" t="s">
+      <c r="R46" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S46" s="13" t="s">
+      <c r="S46" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T46" s="13" t="s">
+      <c r="T46" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="U46" s="2" t="s">
+      <c r="U46" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="28">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A47" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="36" t="s">
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="H47" s="37">
+      <c r="H47" s="10">
         <v>45</v>
       </c>
-      <c r="I47" s="37" t="s">
+      <c r="I47" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="J47" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="K47" s="41" t="s">
+      <c r="K47" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="L47" s="42" t="s">
+      <c r="L47" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="M47" s="45" t="s">
+      <c r="M47" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="N47" s="45"/>
-      <c r="O47" s="44" t="s">
+      <c r="N47" s="28"/>
+      <c r="O47" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="P47" s="43" t="s">
+      <c r="P47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="37">
         <v>6</v>
       </c>
-      <c r="R47" s="13" t="s">
+      <c r="R47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S47" s="13" t="s">
+      <c r="S47" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T47" s="13" t="s">
+      <c r="T47" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="U47" s="2" t="s">
+      <c r="U47" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="18" t="s">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A48" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="36" t="s">
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="10">
         <v>46</v>
       </c>
-      <c r="I48" s="37" t="s">
+      <c r="I48" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J48" s="38" t="s">
+      <c r="J48" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="K48" s="41" t="s">
+      <c r="K48" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L48" s="42" t="s">
+      <c r="L48" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="44" t="s">
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="P48" s="43" t="s">
+      <c r="P48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="Q48" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="R48" s="13" t="s">
+      <c r="R48" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S48" s="13" t="s">
+      <c r="S48" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="T48" s="13" t="s">
+      <c r="T48" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="U48" s="2" t="s">
+      <c r="U48" s="38" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A49" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="36" t="s">
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="10">
         <v>47</v>
       </c>
-      <c r="I49" s="37" t="s">
+      <c r="I49" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J49" s="38" t="s">
+      <c r="J49" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="K49" s="41" t="s">
+      <c r="K49" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L49" s="42" t="s">
+      <c r="L49" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="43" t="s">
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="1:21" ht="28">
-      <c r="A50" s="18" t="s">
+      <c r="Q49" s="37"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="38"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A50" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="36" t="s">
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="10">
         <v>48</v>
       </c>
-      <c r="I50" s="37" t="s">
+      <c r="I50" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="38" t="s">
+      <c r="J50" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="K50" s="41" t="s">
+      <c r="K50" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L50" s="42" t="s">
+      <c r="L50" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="45" t="s">
+      <c r="M50" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N50" s="45"/>
-      <c r="O50" s="44" t="s">
+      <c r="N50" s="28"/>
+      <c r="O50" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="P50" s="43" t="s">
+      <c r="P50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="37">
         <v>6</v>
       </c>
-      <c r="R50" s="13" t="s">
+      <c r="R50" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S50" s="13" t="s">
+      <c r="S50" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="T50" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="U50" s="2" t="s">
+      <c r="U50" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="70">
-      <c r="A51" s="18" t="s">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A51" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37">
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="10">
         <v>49</v>
       </c>
-      <c r="I51" s="37" t="s">
+      <c r="I51" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J51" s="38" t="s">
+      <c r="J51" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="K51" s="41" t="s">
+      <c r="K51" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L51" s="42" t="s">
+      <c r="L51" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M51" s="45" t="s">
+      <c r="M51" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="N51" s="45"/>
-      <c r="O51" s="44" t="s">
+      <c r="N51" s="28"/>
+      <c r="O51" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="P51" s="43" t="s">
+      <c r="P51" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="37">
         <v>6</v>
       </c>
-      <c r="R51" s="13" t="s">
+      <c r="R51" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S51" s="13" t="s">
+      <c r="S51" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T51" s="13" t="s">
+      <c r="T51" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="U51" s="2" t="s">
+      <c r="U51" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="2"/>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="2"/>
-    </row>
-    <row r="56" spans="1:21">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="1:21">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="2"/>
-    </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="2"/>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="2"/>
-    </row>
-    <row r="63" spans="1:21">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="2"/>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="2"/>
-    </row>
-    <row r="65" spans="1:21">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="2"/>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="45"/>
-      <c r="O66" s="44"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="2"/>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="45"/>
-      <c r="O67" s="44"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="2"/>
-    </row>
-    <row r="68" spans="1:21">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="44"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="2"/>
-    </row>
-    <row r="69" spans="1:21">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="2"/>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="44"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="2"/>
-    </row>
-    <row r="71" spans="1:21">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="45"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="2"/>
-    </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="44"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="2"/>
-    </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="2"/>
-    </row>
-    <row r="74" spans="1:21">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="2"/>
-    </row>
-    <row r="75" spans="1:21">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="45"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="2"/>
-    </row>
-    <row r="76" spans="1:21">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="2"/>
-    </row>
-    <row r="77" spans="1:21">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="44"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="2"/>
-    </row>
-    <row r="78" spans="1:21">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="2"/>
-    </row>
-    <row r="79" spans="1:21">
-      <c r="A79" s="22"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="2"/>
-    </row>
-    <row r="80" spans="1:21">
-      <c r="A80" s="22"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="44"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="2"/>
-    </row>
-    <row r="81" spans="1:21">
-      <c r="A81" s="22"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="44"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="2"/>
-    </row>
-    <row r="82" spans="1:21">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="45"/>
-      <c r="O82" s="44"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="2"/>
-    </row>
-    <row r="83" spans="1:21">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="45"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="43"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="2"/>
-    </row>
-    <row r="84" spans="1:21">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="44"/>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="2"/>
-    </row>
-    <row r="85" spans="1:21">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="45"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="43"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
-      <c r="U85" s="2"/>
-    </row>
-    <row r="86" spans="1:21">
-      <c r="A86" s="22"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="45"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="2"/>
-    </row>
-    <row r="87" spans="1:21">
-      <c r="A87" s="22"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="13"/>
-      <c r="U87" s="2"/>
-    </row>
-    <row r="88" spans="1:21">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="2"/>
-    </row>
-    <row r="89" spans="1:21">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="45"/>
-      <c r="N89" s="45"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
-      <c r="U89" s="2"/>
-    </row>
-    <row r="90" spans="1:21">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="44"/>
-      <c r="P90" s="43"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="2"/>
-    </row>
-    <row r="91" spans="1:21">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="42"/>
-      <c r="M91" s="45"/>
-      <c r="N91" s="45"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="43"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="2"/>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="38"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="38"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A54" s="50"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="38"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="38"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A56" s="50"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="38"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A57" s="50"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="38"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="38"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="38"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="38"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="38"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A62" s="50"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="38"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A63" s="50"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="38"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A64" s="50"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="38"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A65" s="50"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="38"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A66" s="50"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="38"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A67" s="50"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="38"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A68" s="50"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="38"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A69" s="50"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="38"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="38"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A71" s="50"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="38"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A72" s="50"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="38"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A73" s="50"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="38"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A74" s="50"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="38"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A75" s="50"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="38"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A76" s="50"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="38"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A77" s="50"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="38"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A78" s="50"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="38"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A79" s="50"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="38"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A80" s="50"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="38"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="38"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A82" s="50"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="38"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="38"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="38"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A85" s="50"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="38"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A86" s="50"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="38"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A87" s="50"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="38"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A88" s="50"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="38"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A89" s="50"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="38"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A90" s="50"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="38"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A91" s="50"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -6271,74 +6258,15 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>N49:N50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>M49:M50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>P49:P50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L49:L50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K49:K50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>M51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>P51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>N51</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -6348,640 +6276,641 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="11"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="11"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="11"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="11"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="11"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="11"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="11"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="11"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="11"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="11"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="11"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="11"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="11"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="11"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="15" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
   </sheetData>
   <sheetProtection password="C9E9" sheet="1" objects="1" scenarios="1"/>

--- a/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO.xlsx
@@ -15,8 +15,10 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$51</definedName>
+  </definedNames>
   <calcPr calcId="140001"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1814,22 +1816,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1870,6 +1857,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="139">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2291,135 +2293,135 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="24.265625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="24.265625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="12" customWidth="1"/>
     <col min="8" max="9" width="4.53125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="65.6640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" style="53" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" style="53" customWidth="1"/>
-    <col min="13" max="13" width="6" style="53" customWidth="1"/>
-    <col min="14" max="14" width="6" style="16" customWidth="1"/>
-    <col min="15" max="15" width="60" style="16" customWidth="1"/>
+    <col min="10" max="10" width="65.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" style="48" customWidth="1"/>
+    <col min="13" max="13" width="6" style="48" customWidth="1"/>
+    <col min="14" max="14" width="6" style="12" customWidth="1"/>
+    <col min="15" max="15" width="60" style="12" customWidth="1"/>
     <col min="16" max="16" width="7.265625" style="2" customWidth="1"/>
-    <col min="17" max="21" width="13.19921875" style="16" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="16"/>
+    <col min="17" max="21" width="13.19921875" style="12" customWidth="1"/>
+    <col min="22" max="16384" width="10.6640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="19" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18" t="s">
+    <row r="2" spans="1:21" s="14" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>107</v>
       </c>
       <c r="H3" s="9">
@@ -2428,57 +2430,57 @@
       <c r="I3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23" t="s">
         <v>114</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="24">
         <v>6</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="U3" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
         <v>112</v>
       </c>
       <c r="H4" s="10">
@@ -2487,57 +2489,57 @@
       <c r="I4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="35" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="30" t="s">
         <v>113</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="24">
         <v>6</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="S4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="T4" s="29" t="s">
+      <c r="T4" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="10">
@@ -2546,57 +2548,57 @@
       <c r="I5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="35" t="s">
+      <c r="N5" s="23"/>
+      <c r="O5" s="30" t="s">
         <v>118</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="24">
         <v>6</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R5" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="U5" s="30" t="s">
+      <c r="U5" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28" t="s">
         <v>223</v>
       </c>
       <c r="H6" s="10">
@@ -2605,26 +2607,26 @@
       <c r="I6" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="35" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="30" t="s">
         <v>224</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="32">
         <v>6</v>
       </c>
       <c r="R6" s="5" t="s">
@@ -2636,26 +2638,26 @@
       <c r="T6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="U6" s="38" t="s">
+      <c r="U6" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28" t="s">
         <v>123</v>
       </c>
       <c r="H7" s="10">
@@ -2664,26 +2666,26 @@
       <c r="I7" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="35" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="30" t="s">
         <v>270</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="32">
         <v>6</v>
       </c>
       <c r="R7" s="5" t="s">
@@ -2695,26 +2697,26 @@
       <c r="T7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="U7" s="38" t="s">
+      <c r="U7" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28" t="s">
         <v>126</v>
       </c>
       <c r="H8" s="10">
@@ -2723,59 +2725,59 @@
       <c r="I8" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="35" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="30" t="s">
         <v>127</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="24">
         <v>6</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="R8" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="S8" s="29" t="s">
+      <c r="S8" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="U8" s="30" t="s">
+      <c r="U8" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="33" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="28" t="s">
         <v>93</v>
       </c>
       <c r="H9" s="10">
@@ -2784,24 +2786,24 @@
       <c r="I9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="35" t="s">
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="30" t="s">
         <v>130</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="Q9" s="36" t="s">
         <v>96</v>
       </c>
       <c r="R9" s="6" t="s">
@@ -2813,30 +2815,30 @@
       <c r="T9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="U9" s="42" t="s">
+      <c r="U9" s="37" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="28" t="s">
         <v>158</v>
       </c>
       <c r="H10" s="10">
@@ -2845,59 +2847,59 @@
       <c r="I10" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="43" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="38" t="s">
         <v>160</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="29" t="s">
+      <c r="R10" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="S10" s="29" t="s">
+      <c r="S10" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="T10" s="29" t="s">
+      <c r="T10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="U10" s="30" t="s">
+      <c r="U10" s="25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="28" t="s">
         <v>132</v>
       </c>
       <c r="H11" s="10">
@@ -2906,61 +2908,61 @@
       <c r="I11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="44" t="s">
+      <c r="N11" s="23"/>
+      <c r="O11" s="39" t="s">
         <v>136</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="24">
         <v>6</v>
       </c>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="29" t="s">
+      <c r="S11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="T11" s="29" t="s">
+      <c r="T11" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="U11" s="30" t="s">
+      <c r="U11" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="28" t="s">
         <v>128</v>
       </c>
       <c r="H12" s="10">
@@ -2969,24 +2971,24 @@
       <c r="I12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28" t="s">
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23" t="s">
         <v>186</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R12" s="5" t="s">
@@ -2998,30 +3000,30 @@
       <c r="T12" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="U12" s="38" t="s">
+      <c r="U12" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="28" t="s">
         <v>137</v>
       </c>
       <c r="H13" s="10">
@@ -3030,24 +3032,24 @@
       <c r="I13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="35" t="s">
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="30" t="s">
         <v>140</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="37" t="s">
+      <c r="Q13" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R13" s="5" t="s">
@@ -3059,30 +3061,30 @@
       <c r="T13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="U13" s="38" t="s">
+      <c r="U13" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="28" t="s">
         <v>142</v>
       </c>
       <c r="H14" s="10">
@@ -3091,24 +3093,24 @@
       <c r="I14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="35" t="s">
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="30" t="s">
         <v>175</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R14" s="5" t="s">
@@ -3120,30 +3122,30 @@
       <c r="T14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U14" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="28" t="s">
         <v>145</v>
       </c>
       <c r="H15" s="10">
@@ -3152,24 +3154,24 @@
       <c r="I15" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="35" t="s">
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="30" t="s">
         <v>162</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="37" t="s">
+      <c r="Q15" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R15" s="5" t="s">
@@ -3181,30 +3183,30 @@
       <c r="T15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="U15" s="38" t="s">
+      <c r="U15" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="28" t="s">
         <v>173</v>
       </c>
       <c r="H16" s="10">
@@ -3213,24 +3215,24 @@
       <c r="I16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28" t="s">
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23" t="s">
         <v>174</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R16" s="5" t="s">
@@ -3242,30 +3244,30 @@
       <c r="T16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="U16" s="38" t="s">
+      <c r="U16" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="28" t="s">
         <v>148</v>
       </c>
       <c r="H17" s="10">
@@ -3274,24 +3276,24 @@
       <c r="I17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28" t="s">
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23" t="s">
         <v>185</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R17" s="5" t="s">
@@ -3303,30 +3305,30 @@
       <c r="T17" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="U17" s="38" t="s">
+      <c r="U17" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="28" t="s">
         <v>152</v>
       </c>
       <c r="H18" s="10">
@@ -3335,24 +3337,24 @@
       <c r="I18" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="35" t="s">
+      <c r="L18" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="35" t="s">
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="30" t="s">
         <v>164</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="37" t="s">
+      <c r="Q18" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R18" s="5" t="s">
@@ -3364,30 +3366,30 @@
       <c r="T18" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="U18" s="38" t="s">
+      <c r="U18" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="29" t="s">
         <v>179</v>
       </c>
       <c r="H19" s="10">
@@ -3396,24 +3398,24 @@
       <c r="I19" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="35" t="s">
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="30" t="s">
         <v>178</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="37" t="s">
+      <c r="Q19" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R19" s="5" t="s">
@@ -3425,28 +3427,28 @@
       <c r="T19" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="U19" s="38" t="s">
+      <c r="U19" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="28" t="s">
         <v>165</v>
       </c>
       <c r="H20" s="10">
@@ -3455,24 +3457,24 @@
       <c r="I20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="35" t="s">
+      <c r="L20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="35" t="s">
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="30" t="s">
         <v>176</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="37" t="s">
+      <c r="Q20" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R20" s="5" t="s">
@@ -3484,28 +3486,28 @@
       <c r="T20" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="U20" s="38" t="s">
+      <c r="U20" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="28" t="s">
         <v>169</v>
       </c>
       <c r="H21" s="10">
@@ -3514,24 +3516,24 @@
       <c r="I21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="35" t="s">
+      <c r="L21" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="35" t="s">
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="30" t="s">
         <v>194</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="37" t="s">
+      <c r="Q21" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -3543,28 +3545,28 @@
       <c r="T21" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="U21" s="38" t="s">
+      <c r="U21" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33" t="s">
+      <c r="F22" s="27"/>
+      <c r="G22" s="28" t="s">
         <v>170</v>
       </c>
       <c r="H22" s="10">
@@ -3573,24 +3575,24 @@
       <c r="I22" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="35" t="s">
+      <c r="L22" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="35" t="s">
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="30" t="s">
         <v>187</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="37" t="s">
+      <c r="Q22" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R22" s="5" t="s">
@@ -3602,26 +3604,26 @@
       <c r="T22" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="U22" s="38" t="s">
+      <c r="U22" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28" t="s">
         <v>199</v>
       </c>
       <c r="H23" s="10">
@@ -3630,26 +3632,26 @@
       <c r="I23" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="35" t="s">
+      <c r="L23" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28" t="s">
+      <c r="M23" s="23"/>
+      <c r="N23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="35" t="s">
+      <c r="O23" s="30" t="s">
         <v>201</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="32">
         <v>6</v>
       </c>
       <c r="R23" s="5" t="s">
@@ -3661,26 +3663,26 @@
       <c r="T23" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="U23" s="38" t="s">
+      <c r="U23" s="33" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28" t="s">
         <v>206</v>
       </c>
       <c r="H24" s="10">
@@ -3689,26 +3691,26 @@
       <c r="I24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="35" t="s">
+      <c r="L24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="35" t="s">
+      <c r="N24" s="23"/>
+      <c r="O24" s="30" t="s">
         <v>205</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="32">
         <v>6</v>
       </c>
       <c r="R24" s="5" t="s">
@@ -3720,26 +3722,26 @@
       <c r="T24" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="U24" s="38" t="s">
+      <c r="U24" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28" t="s">
         <v>210</v>
       </c>
       <c r="H25" s="10">
@@ -3748,24 +3750,24 @@
       <c r="I25" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="35" t="s">
+      <c r="L25" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="35" t="s">
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="30" t="s">
         <v>218</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="37" t="s">
+      <c r="Q25" s="32" t="s">
         <v>208</v>
       </c>
       <c r="R25" s="5" t="s">
@@ -3777,28 +3779,28 @@
       <c r="T25" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="U25" s="38" t="s">
+      <c r="U25" s="33" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="28" t="s">
         <v>215</v>
       </c>
       <c r="H26" s="10">
@@ -3807,24 +3809,24 @@
       <c r="I26" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="34" t="s">
+      <c r="J26" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="35" t="s">
+      <c r="L26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="35" t="s">
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="30" t="s">
         <v>219</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="37" t="s">
+      <c r="Q26" s="32" t="s">
         <v>213</v>
       </c>
       <c r="R26" s="5" t="s">
@@ -3836,28 +3838,28 @@
       <c r="T26" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="U26" s="38" t="s">
+      <c r="U26" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="28" t="s">
         <v>202</v>
       </c>
       <c r="H27" s="10">
@@ -3866,26 +3868,26 @@
       <c r="I27" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="35" t="s">
+      <c r="L27" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="35" t="s">
+      <c r="N27" s="23"/>
+      <c r="O27" s="30" t="s">
         <v>221</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="32">
         <v>6</v>
       </c>
       <c r="R27" s="5" t="s">
@@ -3897,28 +3899,28 @@
       <c r="T27" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="U27" s="38" t="s">
+      <c r="U27" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="28" t="s">
         <v>227</v>
       </c>
       <c r="H28" s="10">
@@ -3927,26 +3929,26 @@
       <c r="I28" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="J28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="35" t="s">
+      <c r="N28" s="23"/>
+      <c r="O28" s="30" t="s">
         <v>236</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="32">
         <v>6</v>
       </c>
       <c r="R28" s="5" t="s">
@@ -3958,28 +3960,28 @@
       <c r="T28" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U28" s="38" t="s">
+      <c r="U28" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="28" t="s">
         <v>231</v>
       </c>
       <c r="H29" s="10">
@@ -3988,26 +3990,26 @@
       <c r="I29" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="L29" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28" t="s">
+      <c r="M29" s="23"/>
+      <c r="N29" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="35" t="s">
+      <c r="O29" s="30" t="s">
         <v>237</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="32">
         <v>6</v>
       </c>
       <c r="R29" s="5" t="s">
@@ -4019,28 +4021,28 @@
       <c r="T29" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="U29" s="38" t="s">
+      <c r="U29" s="33" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="45" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="40" t="s">
         <v>234</v>
       </c>
       <c r="H30" s="10">
@@ -4049,26 +4051,26 @@
       <c r="I30" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="J30" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="35" t="s">
+      <c r="L30" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="M30" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="35" t="s">
+      <c r="N30" s="23"/>
+      <c r="O30" s="30" t="s">
         <v>245</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="32">
         <v>6</v>
       </c>
       <c r="R30" s="5" t="s">
@@ -4080,28 +4082,28 @@
       <c r="T30" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="U30" s="38" t="s">
+      <c r="U30" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="28" t="s">
         <v>249</v>
       </c>
       <c r="H31" s="10">
@@ -4110,24 +4112,24 @@
       <c r="I31" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="K31" s="36" t="s">
+      <c r="K31" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L31" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="35" t="s">
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="30" t="s">
         <v>251</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="37" t="s">
+      <c r="Q31" s="32" t="s">
         <v>208</v>
       </c>
       <c r="R31" s="5" t="s">
@@ -4139,28 +4141,28 @@
       <c r="T31" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="U31" s="38" t="s">
+      <c r="U31" s="33" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33" t="s">
+      <c r="F32" s="27"/>
+      <c r="G32" s="28" t="s">
         <v>257</v>
       </c>
       <c r="H32" s="10">
@@ -4169,26 +4171,26 @@
       <c r="I32" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="J32" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="35" t="s">
+      <c r="L32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="28" t="s">
+      <c r="M32" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="35" t="s">
+      <c r="N32" s="23"/>
+      <c r="O32" s="30" t="s">
         <v>275</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="32">
         <v>6</v>
       </c>
       <c r="R32" s="5" t="s">
@@ -4200,30 +4202,30 @@
       <c r="T32" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="U32" s="38" t="s">
+      <c r="U32" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="28" t="s">
         <v>247</v>
       </c>
       <c r="H33" s="10">
@@ -4232,24 +4234,24 @@
       <c r="I33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="J33" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="K33" s="36" t="s">
+      <c r="K33" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="35" t="s">
+      <c r="L33" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="35" t="s">
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="30" t="s">
         <v>260</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="37" t="s">
+      <c r="Q33" s="32" t="s">
         <v>208</v>
       </c>
       <c r="R33" s="5" t="s">
@@ -4261,30 +4263,30 @@
       <c r="T33" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="U33" s="38" t="s">
+      <c r="U33" s="33" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="28" t="s">
         <v>261</v>
       </c>
       <c r="H34" s="10">
@@ -4293,26 +4295,26 @@
       <c r="I34" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="K34" s="36" t="s">
+      <c r="K34" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="35" t="s">
+      <c r="L34" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="28" t="s">
+      <c r="M34" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N34" s="28"/>
-      <c r="O34" s="35" t="s">
+      <c r="N34" s="23"/>
+      <c r="O34" s="30" t="s">
         <v>263</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q34" s="32">
         <v>6</v>
       </c>
       <c r="R34" s="5" t="s">
@@ -4324,28 +4326,28 @@
       <c r="T34" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="U34" s="38" t="s">
+      <c r="U34" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33" t="s">
+      <c r="F35" s="27"/>
+      <c r="G35" s="28" t="s">
         <v>267</v>
       </c>
       <c r="H35" s="10">
@@ -4354,24 +4356,24 @@
       <c r="I35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L35" s="35" t="s">
+      <c r="L35" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="35" t="s">
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="30" t="s">
         <v>269</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="37" t="s">
+      <c r="Q35" s="32" t="s">
         <v>208</v>
       </c>
       <c r="R35" s="5" t="s">
@@ -4383,28 +4385,28 @@
       <c r="T35" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="U35" s="38" t="s">
+      <c r="U35" s="33" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33" t="s">
+      <c r="F36" s="27"/>
+      <c r="G36" s="28" t="s">
         <v>273</v>
       </c>
       <c r="H36" s="10">
@@ -4413,26 +4415,26 @@
       <c r="I36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="35" t="s">
+      <c r="L36" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="28" t="s">
+      <c r="M36" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="35" t="s">
+      <c r="N36" s="23"/>
+      <c r="O36" s="30" t="s">
         <v>272</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="32">
         <v>6</v>
       </c>
       <c r="R36" s="5" t="s">
@@ -4444,30 +4446,30 @@
       <c r="T36" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="U36" s="38" t="s">
+      <c r="U36" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="28" t="s">
         <v>278</v>
       </c>
       <c r="H37" s="10">
@@ -4476,24 +4478,24 @@
       <c r="I37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J37" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L37" s="35" t="s">
+      <c r="L37" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="35" t="s">
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="30" t="s">
         <v>260</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="37" t="s">
+      <c r="Q37" s="32" t="s">
         <v>208</v>
       </c>
       <c r="R37" s="5" t="s">
@@ -4505,30 +4507,30 @@
       <c r="T37" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="U37" s="38" t="s">
+      <c r="U37" s="33" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="28" t="s">
         <v>282</v>
       </c>
       <c r="H38" s="10">
@@ -4537,24 +4539,24 @@
       <c r="I38" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="J38" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L38" s="35" t="s">
+      <c r="L38" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="35" t="s">
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="30" t="s">
         <v>281</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="37" t="s">
+      <c r="Q38" s="32" t="s">
         <v>208</v>
       </c>
       <c r="R38" s="5" t="s">
@@ -4566,28 +4568,28 @@
       <c r="T38" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="U38" s="38" t="s">
+      <c r="U38" s="33" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33" t="s">
+      <c r="F39" s="27"/>
+      <c r="G39" s="28" t="s">
         <v>285</v>
       </c>
       <c r="H39" s="10">
@@ -4596,24 +4598,24 @@
       <c r="I39" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="K39" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="35" t="s">
+      <c r="L39" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="35" t="s">
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="30" t="s">
         <v>288</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="37">
+      <c r="Q39" s="32">
         <v>6</v>
       </c>
       <c r="R39" s="5" t="s">
@@ -4625,28 +4627,28 @@
       <c r="T39" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="U39" s="38" t="s">
+      <c r="U39" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33" t="s">
+      <c r="F40" s="27"/>
+      <c r="G40" s="28" t="s">
         <v>290</v>
       </c>
       <c r="H40" s="10">
@@ -4655,26 +4657,26 @@
       <c r="I40" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="K40" s="36" t="s">
+      <c r="K40" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="35" t="s">
+      <c r="L40" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="28" t="s">
+      <c r="M40" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="28"/>
-      <c r="O40" s="35" t="s">
+      <c r="N40" s="23"/>
+      <c r="O40" s="30" t="s">
         <v>289</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="37">
+      <c r="Q40" s="32">
         <v>6</v>
       </c>
       <c r="R40" s="5" t="s">
@@ -4686,26 +4688,26 @@
       <c r="T40" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="U40" s="38" t="s">
+      <c r="U40" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="34" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="29" t="s">
         <v>294</v>
       </c>
       <c r="H41" s="10">
@@ -4714,26 +4716,26 @@
       <c r="I41" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J41" s="34" t="s">
+      <c r="J41" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="K41" s="36" t="s">
+      <c r="K41" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="35" t="s">
+      <c r="L41" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28" t="s">
+      <c r="M41" s="23"/>
+      <c r="N41" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O41" s="35" t="s">
+      <c r="O41" s="30" t="s">
         <v>317</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="32">
         <v>6</v>
       </c>
       <c r="R41" s="5" t="s">
@@ -4745,26 +4747,26 @@
       <c r="T41" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="U41" s="38" t="s">
+      <c r="U41" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="20" t="s">
+    <row r="42" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33" t="s">
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28" t="s">
         <v>311</v>
       </c>
       <c r="H42" s="10">
@@ -4773,59 +4775,59 @@
       <c r="I42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="J42" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="L42" s="35" t="s">
+      <c r="L42" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="M42" s="28" t="s">
+      <c r="M42" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="28"/>
-      <c r="O42" s="35" t="s">
+      <c r="N42" s="23"/>
+      <c r="O42" s="30" t="s">
         <v>318</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="29">
+      <c r="Q42" s="24">
         <v>6</v>
       </c>
-      <c r="R42" s="29" t="s">
+      <c r="R42" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="S42" s="29" t="s">
+      <c r="S42" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="T42" s="29" t="s">
+      <c r="T42" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="U42" s="30" t="s">
+      <c r="U42" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33" t="s">
+      <c r="F43" s="27"/>
+      <c r="G43" s="28" t="s">
         <v>308</v>
       </c>
       <c r="H43" s="10">
@@ -4834,26 +4836,26 @@
       <c r="I43" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="J43" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="L43" s="35" t="s">
+      <c r="L43" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="M43" s="28" t="s">
+      <c r="M43" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="N43" s="28"/>
-      <c r="O43" s="35" t="s">
+      <c r="N43" s="23"/>
+      <c r="O43" s="30" t="s">
         <v>316</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="37">
+      <c r="Q43" s="32">
         <v>6</v>
       </c>
       <c r="R43" s="5" t="s">
@@ -4865,28 +4867,28 @@
       <c r="T43" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="U43" s="38" t="s">
+      <c r="U43" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33" t="s">
+      <c r="F44" s="27"/>
+      <c r="G44" s="28" t="s">
         <v>313</v>
       </c>
       <c r="H44" s="10">
@@ -4895,26 +4897,26 @@
       <c r="I44" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="K44" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="L44" s="35" t="s">
+      <c r="L44" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="M44" s="28" t="s">
+      <c r="M44" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="28"/>
-      <c r="O44" s="35" t="s">
+      <c r="N44" s="23"/>
+      <c r="O44" s="30" t="s">
         <v>315</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="37">
+      <c r="Q44" s="32">
         <v>6</v>
       </c>
       <c r="R44" s="5" t="s">
@@ -4926,26 +4928,26 @@
       <c r="T44" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="U44" s="38" t="s">
+      <c r="U44" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="34" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="29" t="s">
         <v>183</v>
       </c>
       <c r="H45" s="10">
@@ -4954,24 +4956,24 @@
       <c r="I45" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="J45" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="K45" s="36" t="s">
+      <c r="K45" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L45" s="35" t="s">
+      <c r="L45" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="35" t="s">
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="30" t="s">
         <v>188</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="37" t="s">
+      <c r="Q45" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R45" s="5" t="s">
@@ -4983,26 +4985,26 @@
       <c r="T45" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="U45" s="38" t="s">
+      <c r="U45" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="33" t="s">
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="28" t="s">
         <v>189</v>
       </c>
       <c r="H46" s="10">
@@ -5011,24 +5013,24 @@
       <c r="I46" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J46" s="34" t="s">
+      <c r="J46" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="K46" s="36" t="s">
+      <c r="K46" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L46" s="35" t="s">
+      <c r="L46" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="35" t="s">
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="30" t="s">
         <v>238</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q46" s="37" t="s">
+      <c r="Q46" s="32" t="s">
         <v>96</v>
       </c>
       <c r="R46" s="5" t="s">
@@ -5040,26 +5042,26 @@
       <c r="T46" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="U46" s="38" t="s">
+      <c r="U46" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="33" t="s">
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="28" t="s">
         <v>241</v>
       </c>
       <c r="H47" s="10">
@@ -5068,26 +5070,26 @@
       <c r="I47" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J47" s="34" t="s">
+      <c r="J47" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="K47" s="36" t="s">
+      <c r="K47" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="L47" s="35" t="s">
+      <c r="L47" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="M47" s="28" t="s">
+      <c r="M47" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="N47" s="28"/>
-      <c r="O47" s="35" t="s">
+      <c r="N47" s="23"/>
+      <c r="O47" s="30" t="s">
         <v>243</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="37">
+      <c r="Q47" s="32">
         <v>6</v>
       </c>
       <c r="R47" s="5" t="s">
@@ -5099,26 +5101,26 @@
       <c r="T47" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="U47" s="38" t="s">
+      <c r="U47" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="33" t="s">
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="28" t="s">
         <v>253</v>
       </c>
       <c r="H48" s="10">
@@ -5127,24 +5129,24 @@
       <c r="I48" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J48" s="34" t="s">
+      <c r="J48" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="K48" s="36" t="s">
+      <c r="K48" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L48" s="35" t="s">
+      <c r="L48" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="35" t="s">
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="30" t="s">
         <v>255</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="37" t="s">
+      <c r="Q48" s="32" t="s">
         <v>208</v>
       </c>
       <c r="R48" s="5" t="s">
@@ -5156,26 +5158,26 @@
       <c r="T48" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="U48" s="38" t="s">
+      <c r="U48" s="33" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="33" t="s">
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="28" t="s">
         <v>297</v>
       </c>
       <c r="H49" s="10">
@@ -5184,43 +5186,43 @@
       <c r="I49" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J49" s="34" t="s">
+      <c r="J49" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="K49" s="36" t="s">
+      <c r="K49" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L49" s="35" t="s">
+      <c r="L49" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="35"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="30"/>
       <c r="P49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="37"/>
+      <c r="Q49" s="32"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="38"/>
+      <c r="U49" s="33"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="33" t="s">
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="28" t="s">
         <v>298</v>
       </c>
       <c r="H50" s="10">
@@ -5229,26 +5231,26 @@
       <c r="I50" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="34" t="s">
+      <c r="J50" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="K50" s="36" t="s">
+      <c r="K50" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L50" s="35" t="s">
+      <c r="L50" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="28" t="s">
+      <c r="M50" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N50" s="28"/>
-      <c r="O50" s="35" t="s">
+      <c r="N50" s="23"/>
+      <c r="O50" s="30" t="s">
         <v>299</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q50" s="37">
+      <c r="Q50" s="32">
         <v>6</v>
       </c>
       <c r="R50" s="5" t="s">
@@ -5260,52 +5262,52 @@
       <c r="T50" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="U50" s="38" t="s">
+      <c r="U50" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="33"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="10">
         <v>49</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J51" s="34" t="s">
+      <c r="J51" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="K51" s="36" t="s">
+      <c r="K51" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L51" s="35" t="s">
+      <c r="L51" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M51" s="28" t="s">
+      <c r="M51" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N51" s="28"/>
-      <c r="O51" s="35" t="s">
+      <c r="N51" s="23"/>
+      <c r="O51" s="30" t="s">
         <v>305</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="37">
+      <c r="Q51" s="32">
         <v>6</v>
       </c>
       <c r="R51" s="5" t="s">
@@ -5317,932 +5319,940 @@
       <c r="T51" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="U51" s="38" t="s">
+      <c r="U51" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A52" s="50"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="33"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="35"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="30"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="37"/>
+      <c r="Q52" s="32"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="38"/>
+      <c r="U52" s="33"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A53" s="50"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="33"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="35"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="30"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="37"/>
+      <c r="Q53" s="32"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="38"/>
+      <c r="U53" s="33"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A54" s="50"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="33"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="35"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="30"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="37"/>
+      <c r="Q54" s="32"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="38"/>
+      <c r="U54" s="33"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A55" s="50"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="33"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="35"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="30"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="37"/>
+      <c r="Q55" s="32"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="38"/>
+      <c r="U55" s="33"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A56" s="50"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="33"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="35"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="30"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="37"/>
+      <c r="Q56" s="32"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="38"/>
+      <c r="U56" s="33"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A57" s="50"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="33"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="35"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="30"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="37"/>
+      <c r="Q57" s="32"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="38"/>
+      <c r="U57" s="33"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A58" s="50"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="33"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="35"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="30"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="37"/>
+      <c r="Q58" s="32"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="38"/>
+      <c r="U58" s="33"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A59" s="50"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="33"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="35"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="30"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="37"/>
+      <c r="Q59" s="32"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="38"/>
+      <c r="U59" s="33"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A60" s="50"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="33"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="28"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="35"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="30"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="37"/>
+      <c r="Q60" s="32"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="38"/>
+      <c r="U60" s="33"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A61" s="50"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="33"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="28"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="35"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="30"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="37"/>
+      <c r="Q61" s="32"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="38"/>
+      <c r="U61" s="33"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A62" s="50"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="33"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="35"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="30"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="37"/>
+      <c r="Q62" s="32"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="38"/>
+      <c r="U62" s="33"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A63" s="50"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="33"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="35"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="30"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="37"/>
+      <c r="Q63" s="32"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="38"/>
+      <c r="U63" s="33"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A64" s="50"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="33"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="28"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="35"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="30"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="37"/>
+      <c r="Q64" s="32"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="38"/>
+      <c r="U64" s="33"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A65" s="50"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="33"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="28"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="35"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="30"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="37"/>
+      <c r="Q65" s="32"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="38"/>
+      <c r="U65" s="33"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A66" s="50"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="33"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="28"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="35"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="30"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="37"/>
+      <c r="Q66" s="32"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="38"/>
+      <c r="U66" s="33"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A67" s="50"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="33"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="28"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="35"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="30"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="37"/>
+      <c r="Q67" s="32"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
-      <c r="U67" s="38"/>
+      <c r="U67" s="33"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A68" s="50"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="33"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="28"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="35"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="30"/>
       <c r="P68" s="11"/>
-      <c r="Q68" s="37"/>
+      <c r="Q68" s="32"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
-      <c r="U68" s="38"/>
+      <c r="U68" s="33"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A69" s="50"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="33"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="28"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="35"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="30"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="37"/>
+      <c r="Q69" s="32"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
-      <c r="U69" s="38"/>
+      <c r="U69" s="33"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A70" s="50"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="33"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="28"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="35"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="30"/>
       <c r="P70" s="11"/>
-      <c r="Q70" s="37"/>
+      <c r="Q70" s="32"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="38"/>
+      <c r="U70" s="33"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A71" s="50"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="33"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="28"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="35"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="30"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="37"/>
+      <c r="Q71" s="32"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
-      <c r="U71" s="38"/>
+      <c r="U71" s="33"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A72" s="50"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="33"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="28"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="35"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="30"/>
       <c r="P72" s="11"/>
-      <c r="Q72" s="37"/>
+      <c r="Q72" s="32"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
-      <c r="U72" s="38"/>
+      <c r="U72" s="33"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A73" s="50"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="33"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="28"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="35"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="30"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="37"/>
+      <c r="Q73" s="32"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
-      <c r="U73" s="38"/>
+      <c r="U73" s="33"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A74" s="50"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="33"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="28"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="35"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="30"/>
       <c r="P74" s="11"/>
-      <c r="Q74" s="37"/>
+      <c r="Q74" s="32"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
-      <c r="U74" s="38"/>
+      <c r="U74" s="33"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A75" s="50"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="33"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="28"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="35"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="30"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="37"/>
+      <c r="Q75" s="32"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
-      <c r="U75" s="38"/>
+      <c r="U75" s="33"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A76" s="50"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="33"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="28"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="35"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="30"/>
       <c r="P76" s="11"/>
-      <c r="Q76" s="37"/>
+      <c r="Q76" s="32"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
-      <c r="U76" s="38"/>
+      <c r="U76" s="33"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A77" s="50"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="33"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="28"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="35"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="30"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="37"/>
+      <c r="Q77" s="32"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
-      <c r="U77" s="38"/>
+      <c r="U77" s="33"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A78" s="50"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="33"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="28"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="35"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="30"/>
       <c r="P78" s="11"/>
-      <c r="Q78" s="37"/>
+      <c r="Q78" s="32"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
-      <c r="U78" s="38"/>
+      <c r="U78" s="33"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A79" s="50"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="33"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="28"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="35"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="30"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="37"/>
+      <c r="Q79" s="32"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
-      <c r="U79" s="38"/>
+      <c r="U79" s="33"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A80" s="50"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="33"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="28"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="35"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="30"/>
       <c r="P80" s="11"/>
-      <c r="Q80" s="37"/>
+      <c r="Q80" s="32"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
-      <c r="U80" s="38"/>
+      <c r="U80" s="33"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A81" s="50"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="33"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="28"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="35"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="30"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="37"/>
+      <c r="Q81" s="32"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
-      <c r="U81" s="38"/>
+      <c r="U81" s="33"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A82" s="50"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="33"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="28"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="35"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="30"/>
       <c r="P82" s="11"/>
-      <c r="Q82" s="37"/>
+      <c r="Q82" s="32"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
-      <c r="U82" s="38"/>
+      <c r="U82" s="33"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A83" s="50"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="33"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="28"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="35"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="30"/>
       <c r="P83" s="11"/>
-      <c r="Q83" s="37"/>
+      <c r="Q83" s="32"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
-      <c r="U83" s="38"/>
+      <c r="U83" s="33"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A84" s="50"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="33"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="28"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="35"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="30"/>
       <c r="P84" s="11"/>
-      <c r="Q84" s="37"/>
+      <c r="Q84" s="32"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
-      <c r="U84" s="38"/>
+      <c r="U84" s="33"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A85" s="50"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="33"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="28"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="28"/>
-      <c r="O85" s="35"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="30"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="37"/>
+      <c r="Q85" s="32"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
-      <c r="U85" s="38"/>
+      <c r="U85" s="33"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A86" s="50"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="33"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="28"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="35"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="30"/>
       <c r="P86" s="11"/>
-      <c r="Q86" s="37"/>
+      <c r="Q86" s="32"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
-      <c r="U86" s="38"/>
+      <c r="U86" s="33"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A87" s="50"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="33"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="28"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="35"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="30"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="37"/>
+      <c r="Q87" s="32"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
-      <c r="U87" s="38"/>
+      <c r="U87" s="33"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A88" s="50"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="33"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="28"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="35"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="30"/>
       <c r="P88" s="11"/>
-      <c r="Q88" s="37"/>
+      <c r="Q88" s="32"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
-      <c r="U88" s="38"/>
+      <c r="U88" s="33"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A89" s="50"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="33"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="28"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="35"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="30"/>
       <c r="P89" s="11"/>
-      <c r="Q89" s="37"/>
+      <c r="Q89" s="32"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
-      <c r="U89" s="38"/>
+      <c r="U89" s="33"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A90" s="50"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="33"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="28"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="35"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="30"/>
       <c r="P90" s="11"/>
-      <c r="Q90" s="37"/>
+      <c r="Q90" s="32"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
-      <c r="U90" s="38"/>
+      <c r="U90" s="33"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A91" s="50"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="33"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="28"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="35"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="30"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="37"/>
+      <c r="Q91" s="32"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
-      <c r="U91" s="38"/>
+      <c r="U91" s="33"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U51">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -6258,11 +6268,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado10\guion02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-181" yWindow="204" windowWidth="25603" windowHeight="13902"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,20 +13,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$51</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="320">
   <si>
     <t>Asignatura</t>
   </si>
@@ -437,9 +432,6 @@
   </si>
   <si>
     <t xml:space="preserve">(DBA: 5) Diseñar cinco (5) oraciones metafóricas y cinco (5) no metafóricas o simples, para que el estudiante las arrastre en dos contenedores diferentes (Metáforas y No metáforas, por ejemplo). </t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
   </si>
   <si>
     <t xml:space="preserve">Actividad diagnóstica con base en la lectura sobre el conversatorio </t>
@@ -1273,6 +1265,12 @@
   </si>
   <si>
     <t>(DBA: 4) Es importante que al menos parte de esta información haya sido presentada en el Interactivo de la sección. Varias lenguas (indígenas, el criol; incluso el inglés como lenguaje en San Andrés, en fin) serán ubicadas por el estudiante en contenedores que las clasifiquen, o bien por la regíon en la que se hablan, la etnia u otra.</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>Recurso M101A-06</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,33 +2288,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.19921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="24.265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="24.33203125" style="12" customWidth="1"/>
     <col min="7" max="7" width="41.33203125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="4.53125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="4.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="65.6640625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" style="48" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="48" customWidth="1"/>
     <col min="13" max="13" width="6" style="48" customWidth="1"/>
     <col min="14" max="14" width="6" style="12" customWidth="1"/>
     <col min="15" max="15" width="60" style="12" customWidth="1"/>
-    <col min="16" max="16" width="7.265625" style="2" customWidth="1"/>
-    <col min="17" max="21" width="13.19921875" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="12"/>
+    <col min="16" max="16" width="7.33203125" style="2" customWidth="1"/>
+    <col min="17" max="21" width="13.1640625" style="12" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" ht="15" thickBot="1">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="14" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="50"/>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -2406,7 +2404,7 @@
       <c r="T2" s="50"/>
       <c r="U2" s="50"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -2465,7 +2463,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21">
       <c r="A4" s="15" t="s">
         <v>68</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21">
       <c r="A5" s="15" t="s">
         <v>68</v>
       </c>
@@ -2583,7 +2581,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21">
       <c r="A6" s="15" t="s">
         <v>68</v>
       </c>
@@ -2599,7 +2597,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="10">
         <v>4</v>
@@ -2608,7 +2606,7 @@
         <v>108</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>69</v>
@@ -2617,11 +2615,11 @@
         <v>32</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>19</v>
@@ -2636,13 +2634,13 @@
         <v>102</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>119</v>
+        <v>319</v>
       </c>
       <c r="U6" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21">
       <c r="A7" s="15" t="s">
         <v>68</v>
       </c>
@@ -2658,7 +2656,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="10">
         <v>5</v>
@@ -2667,7 +2665,7 @@
         <v>108</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>69</v>
@@ -2680,7 +2678,7 @@
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>19</v>
@@ -2695,13 +2693,13 @@
         <v>102</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U7" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21">
       <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
@@ -2717,7 +2715,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="10">
         <v>6</v>
@@ -2726,7 +2724,7 @@
         <v>108</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>69</v>
@@ -2739,7 +2737,7 @@
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>19</v>
@@ -2754,13 +2752,13 @@
         <v>102</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U8" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21">
       <c r="A9" s="15" t="s">
         <v>68</v>
       </c>
@@ -2798,7 +2796,7 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>19</v>
@@ -2819,7 +2817,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21">
       <c r="A10" s="15" t="s">
         <v>68</v>
       </c>
@@ -2836,10 +2834,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>158</v>
       </c>
       <c r="H10" s="10">
         <v>8</v>
@@ -2848,7 +2846,7 @@
         <v>108</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>70</v>
@@ -2859,7 +2857,7 @@
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
       <c r="O10" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>19</v>
@@ -2874,13 +2872,13 @@
         <v>105</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U10" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21">
       <c r="A11" s="15" t="s">
         <v>68</v>
       </c>
@@ -2897,10 +2895,10 @@
         <v>100</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="10">
         <v>9</v>
@@ -2909,7 +2907,7 @@
         <v>108</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>69</v>
@@ -2922,7 +2920,7 @@
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>19</v>
@@ -2937,13 +2935,13 @@
         <v>102</v>
       </c>
       <c r="T11" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U11" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21">
       <c r="A12" s="15" t="s">
         <v>68</v>
       </c>
@@ -2960,10 +2958,10 @@
         <v>100</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="10">
         <v>10</v>
@@ -2972,18 +2970,18 @@
         <v>94</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K12" s="31" t="s">
         <v>70</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>19</v>
@@ -2998,13 +2996,13 @@
         <v>105</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U12" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21">
       <c r="A13" s="15" t="s">
         <v>68</v>
       </c>
@@ -3018,13 +3016,13 @@
         <v>99</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="10">
         <v>11</v>
@@ -3033,7 +3031,7 @@
         <v>94</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K13" s="31" t="s">
         <v>70</v>
@@ -3044,7 +3042,7 @@
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>19</v>
@@ -3059,13 +3057,13 @@
         <v>105</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U13" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21">
       <c r="A14" s="15" t="s">
         <v>68</v>
       </c>
@@ -3079,13 +3077,13 @@
         <v>99</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="10">
         <v>12</v>
@@ -3094,7 +3092,7 @@
         <v>94</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>70</v>
@@ -3105,7 +3103,7 @@
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>19</v>
@@ -3120,13 +3118,13 @@
         <v>105</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U14" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21">
       <c r="A15" s="15" t="s">
         <v>68</v>
       </c>
@@ -3140,13 +3138,13 @@
         <v>99</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="10">
         <v>13</v>
@@ -3155,7 +3153,7 @@
         <v>108</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>70</v>
@@ -3166,7 +3164,7 @@
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>19</v>
@@ -3181,13 +3179,13 @@
         <v>105</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U15" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21">
       <c r="A16" s="15" t="s">
         <v>68</v>
       </c>
@@ -3201,13 +3199,13 @@
         <v>99</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="10">
         <v>14</v>
@@ -3216,7 +3214,7 @@
         <v>94</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>70</v>
@@ -3227,7 +3225,7 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>19</v>
@@ -3242,13 +3240,13 @@
         <v>105</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U16" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21">
       <c r="A17" s="15" t="s">
         <v>68</v>
       </c>
@@ -3262,13 +3260,13 @@
         <v>99</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="H17" s="10">
         <v>15</v>
@@ -3277,18 +3275,18 @@
         <v>94</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K17" s="31" t="s">
         <v>70</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>19</v>
@@ -3303,13 +3301,13 @@
         <v>105</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U17" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21">
       <c r="A18" s="15" t="s">
         <v>68</v>
       </c>
@@ -3323,13 +3321,13 @@
         <v>99</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H18" s="10">
         <v>16</v>
@@ -3338,7 +3336,7 @@
         <v>108</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>70</v>
@@ -3349,7 +3347,7 @@
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>19</v>
@@ -3364,13 +3362,13 @@
         <v>105</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U18" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21">
       <c r="A19" s="15" t="s">
         <v>68</v>
       </c>
@@ -3384,13 +3382,13 @@
         <v>99</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H19" s="10">
         <v>17</v>
@@ -3399,7 +3397,7 @@
         <v>108</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>70</v>
@@ -3410,7 +3408,7 @@
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>19</v>
@@ -3425,13 +3423,13 @@
         <v>105</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U19" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -3445,11 +3443,11 @@
         <v>99</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H20" s="10">
         <v>18</v>
@@ -3458,7 +3456,7 @@
         <v>94</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K20" s="31" t="s">
         <v>70</v>
@@ -3469,7 +3467,7 @@
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>19</v>
@@ -3484,13 +3482,13 @@
         <v>105</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U20" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -3504,11 +3502,11 @@
         <v>99</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H21" s="10">
         <v>19</v>
@@ -3517,7 +3515,7 @@
         <v>108</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>70</v>
@@ -3528,7 +3526,7 @@
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>19</v>
@@ -3543,13 +3541,13 @@
         <v>105</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U21" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21">
       <c r="A22" s="15" t="s">
         <v>68</v>
       </c>
@@ -3563,11 +3561,11 @@
         <v>99</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H22" s="10">
         <v>20</v>
@@ -3576,7 +3574,7 @@
         <v>108</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>70</v>
@@ -3587,7 +3585,7 @@
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>20</v>
@@ -3602,13 +3600,13 @@
         <v>105</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U22" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21">
       <c r="A23" s="15" t="s">
         <v>68</v>
       </c>
@@ -3619,12 +3617,12 @@
         <v>91</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="27"/>
       <c r="G23" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H23" s="10">
         <v>21</v>
@@ -3633,7 +3631,7 @@
         <v>94</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>69</v>
@@ -3646,7 +3644,7 @@
         <v>35</v>
       </c>
       <c r="O23" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>19</v>
@@ -3655,19 +3653,19 @@
         <v>6</v>
       </c>
       <c r="R23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="S23" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="U23" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="U23" s="33" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="15" t="s">
         <v>68</v>
       </c>
@@ -3678,12 +3676,12 @@
         <v>91</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="27"/>
       <c r="G24" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H24" s="10">
         <v>22</v>
@@ -3692,7 +3690,7 @@
         <v>108</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K24" s="31" t="s">
         <v>69</v>
@@ -3705,7 +3703,7 @@
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>19</v>
@@ -3720,13 +3718,13 @@
         <v>102</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U24" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21">
       <c r="A25" s="15" t="s">
         <v>68</v>
       </c>
@@ -3737,12 +3735,12 @@
         <v>91</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="27"/>
       <c r="G25" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H25" s="10">
         <v>23</v>
@@ -3751,7 +3749,7 @@
         <v>108</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K25" s="31" t="s">
         <v>70</v>
@@ -3762,28 +3760,28 @@
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
       <c r="O25" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S25" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="T25" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="U25" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="U25" s="33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="15" t="s">
         <v>68</v>
       </c>
@@ -3794,14 +3792,14 @@
         <v>91</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="10">
         <v>24</v>
@@ -3810,7 +3808,7 @@
         <v>94</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K26" s="31" t="s">
         <v>70</v>
@@ -3821,28 +3819,28 @@
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
       <c r="O26" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S26" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="T26" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="U26" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="U26" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="15" t="s">
         <v>68</v>
       </c>
@@ -3853,14 +3851,14 @@
         <v>91</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H27" s="10">
         <v>25</v>
@@ -3869,7 +3867,7 @@
         <v>108</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>69</v>
@@ -3882,7 +3880,7 @@
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>19</v>
@@ -3897,13 +3895,13 @@
         <v>102</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U27" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21">
       <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
@@ -3914,14 +3912,14 @@
         <v>91</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" s="10">
         <v>26</v>
@@ -3930,7 +3928,7 @@
         <v>108</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>69</v>
@@ -3943,7 +3941,7 @@
       </c>
       <c r="N28" s="23"/>
       <c r="O28" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>19</v>
@@ -3958,13 +3956,13 @@
         <v>102</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U28" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21">
       <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
@@ -3975,14 +3973,14 @@
         <v>91</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H29" s="10">
         <v>27</v>
@@ -3991,7 +3989,7 @@
         <v>94</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>69</v>
@@ -4004,7 +4002,7 @@
         <v>42</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>19</v>
@@ -4013,19 +4011,19 @@
         <v>6</v>
       </c>
       <c r="R29" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="S29" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S29" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="T29" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U29" s="33" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="15" t="s">
         <v>68</v>
       </c>
@@ -4036,14 +4034,14 @@
         <v>91</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H30" s="10">
         <v>28</v>
@@ -4052,7 +4050,7 @@
         <v>108</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K30" s="31" t="s">
         <v>69</v>
@@ -4065,7 +4063,7 @@
       </c>
       <c r="N30" s="23"/>
       <c r="O30" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>19</v>
@@ -4080,13 +4078,13 @@
         <v>102</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U30" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21">
       <c r="A31" s="15" t="s">
         <v>68</v>
       </c>
@@ -4097,14 +4095,14 @@
         <v>91</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H31" s="10">
         <v>29</v>
@@ -4113,7 +4111,7 @@
         <v>94</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K31" s="31" t="s">
         <v>70</v>
@@ -4124,28 +4122,28 @@
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
       <c r="O31" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S31" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="T31" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="U31" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="U31" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="15" t="s">
         <v>68</v>
       </c>
@@ -4156,14 +4154,14 @@
         <v>91</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H32" s="10">
         <v>30</v>
@@ -4172,7 +4170,7 @@
         <v>108</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K32" s="31" t="s">
         <v>69</v>
@@ -4185,7 +4183,7 @@
       </c>
       <c r="N32" s="23"/>
       <c r="O32" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>19</v>
@@ -4200,13 +4198,13 @@
         <v>102</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U32" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21">
       <c r="A33" s="15" t="s">
         <v>68</v>
       </c>
@@ -4217,16 +4215,16 @@
         <v>91</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E33" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="H33" s="10">
         <v>31</v>
@@ -4235,7 +4233,7 @@
         <v>94</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K33" s="31" t="s">
         <v>70</v>
@@ -4246,28 +4244,28 @@
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
       <c r="O33" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U33" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="15" t="s">
         <v>68</v>
       </c>
@@ -4278,16 +4276,16 @@
         <v>91</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H34" s="10">
         <v>32</v>
@@ -4296,7 +4294,7 @@
         <v>108</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K34" s="31" t="s">
         <v>69</v>
@@ -4309,7 +4307,7 @@
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>19</v>
@@ -4324,13 +4322,13 @@
         <v>102</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U34" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21">
       <c r="A35" s="15" t="s">
         <v>68</v>
       </c>
@@ -4341,14 +4339,14 @@
         <v>91</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H35" s="10">
         <v>33</v>
@@ -4357,7 +4355,7 @@
         <v>94</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>70</v>
@@ -4368,28 +4366,28 @@
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
       <c r="O35" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U35" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="15" t="s">
         <v>68</v>
       </c>
@@ -4400,14 +4398,14 @@
         <v>91</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H36" s="10">
         <v>34</v>
@@ -4416,7 +4414,7 @@
         <v>108</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K36" s="31" t="s">
         <v>69</v>
@@ -4429,7 +4427,7 @@
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>19</v>
@@ -4444,13 +4442,13 @@
         <v>102</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U36" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21">
       <c r="A37" s="15" t="s">
         <v>68</v>
       </c>
@@ -4461,16 +4459,16 @@
         <v>91</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F37" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" s="28" t="s">
         <v>277</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>278</v>
       </c>
       <c r="H37" s="10">
         <v>35</v>
@@ -4479,7 +4477,7 @@
         <v>94</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>70</v>
@@ -4490,28 +4488,28 @@
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
       <c r="O37" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>19</v>
       </c>
       <c r="Q37" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U37" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="15" t="s">
         <v>68</v>
       </c>
@@ -4522,16 +4520,16 @@
         <v>91</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H38" s="10">
         <v>36</v>
@@ -4540,7 +4538,7 @@
         <v>108</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K38" s="31" t="s">
         <v>70</v>
@@ -4551,28 +4549,28 @@
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
       <c r="O38" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U38" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="15" t="s">
         <v>68</v>
       </c>
@@ -4583,14 +4581,14 @@
         <v>91</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H39" s="10">
         <v>37</v>
@@ -4599,7 +4597,7 @@
         <v>108</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K39" s="31" t="s">
         <v>69</v>
@@ -4610,7 +4608,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="23"/>
       <c r="O39" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>19</v>
@@ -4625,13 +4623,13 @@
         <v>102</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U39" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21">
       <c r="A40" s="15" t="s">
         <v>68</v>
       </c>
@@ -4642,14 +4640,14 @@
         <v>91</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H40" s="10">
         <v>38</v>
@@ -4658,7 +4656,7 @@
         <v>108</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K40" s="31" t="s">
         <v>69</v>
@@ -4671,7 +4669,7 @@
       </c>
       <c r="N40" s="23"/>
       <c r="O40" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>20</v>
@@ -4686,13 +4684,13 @@
         <v>102</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U40" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21">
       <c r="A41" s="15" t="s">
         <v>68</v>
       </c>
@@ -4703,12 +4701,12 @@
         <v>91</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="27"/>
       <c r="G41" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H41" s="10">
         <v>39</v>
@@ -4717,7 +4715,7 @@
         <v>94</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K41" s="31" t="s">
         <v>69</v>
@@ -4730,7 +4728,7 @@
         <v>45</v>
       </c>
       <c r="O41" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>19</v>
@@ -4739,19 +4737,19 @@
         <v>6</v>
       </c>
       <c r="R41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="S41" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S41" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="T41" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U41" s="33" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="41" customFormat="1">
       <c r="A42" s="15" t="s">
         <v>68</v>
       </c>
@@ -4762,12 +4760,12 @@
         <v>91</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="27"/>
       <c r="G42" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H42" s="10">
         <v>40</v>
@@ -4776,20 +4774,20 @@
         <v>108</v>
       </c>
       <c r="J42" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K42" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L42" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M42" s="23" t="s">
         <v>24</v>
       </c>
       <c r="N42" s="23"/>
       <c r="O42" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>19</v>
@@ -4804,13 +4802,13 @@
         <v>102</v>
       </c>
       <c r="T42" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U42" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21">
       <c r="A43" s="15" t="s">
         <v>68</v>
       </c>
@@ -4821,14 +4819,14 @@
         <v>91</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H43" s="10">
         <v>41</v>
@@ -4837,20 +4835,20 @@
         <v>108</v>
       </c>
       <c r="J43" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L43" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M43" s="23" t="s">
         <v>62</v>
       </c>
       <c r="N43" s="23"/>
       <c r="O43" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>19</v>
@@ -4865,13 +4863,13 @@
         <v>102</v>
       </c>
       <c r="T43" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U43" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21">
       <c r="A44" s="15" t="s">
         <v>68</v>
       </c>
@@ -4882,14 +4880,14 @@
         <v>91</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F44" s="27"/>
       <c r="G44" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H44" s="10">
         <v>42</v>
@@ -4898,20 +4896,20 @@
         <v>108</v>
       </c>
       <c r="J44" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K44" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N44" s="23"/>
       <c r="O44" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>20</v>
@@ -4926,13 +4924,13 @@
         <v>102</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="U44" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21">
       <c r="A45" s="15" t="s">
         <v>68</v>
       </c>
@@ -4943,12 +4941,12 @@
         <v>91</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="27"/>
       <c r="G45" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H45" s="10">
         <v>43</v>
@@ -4957,18 +4955,18 @@
         <v>108</v>
       </c>
       <c r="J45" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K45" s="31" t="s">
         <v>70</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
       <c r="O45" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>19</v>
@@ -4983,13 +4981,13 @@
         <v>105</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U45" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21">
       <c r="A46" s="15" t="s">
         <v>68</v>
       </c>
@@ -5000,12 +4998,12 @@
         <v>91</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E46" s="42"/>
       <c r="F46" s="43"/>
       <c r="G46" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H46" s="10">
         <v>44</v>
@@ -5014,18 +5012,18 @@
         <v>108</v>
       </c>
       <c r="J46" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K46" s="31" t="s">
         <v>70</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
       <c r="O46" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>19</v>
@@ -5040,13 +5038,13 @@
         <v>105</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U46" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21">
       <c r="A47" s="15" t="s">
         <v>68</v>
       </c>
@@ -5057,12 +5055,12 @@
         <v>91</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="43"/>
       <c r="G47" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H47" s="10">
         <v>45</v>
@@ -5071,20 +5069,20 @@
         <v>108</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M47" s="23" t="s">
         <v>54</v>
       </c>
       <c r="N47" s="23"/>
       <c r="O47" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>19</v>
@@ -5099,13 +5097,13 @@
         <v>102</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U47" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21">
       <c r="A48" s="15" t="s">
         <v>68</v>
       </c>
@@ -5116,12 +5114,12 @@
         <v>91</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="43"/>
       <c r="G48" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H48" s="10">
         <v>46</v>
@@ -5130,39 +5128,39 @@
         <v>108</v>
       </c>
       <c r="J48" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K48" s="31" t="s">
         <v>70</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
       <c r="O48" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>19</v>
       </c>
       <c r="Q48" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R48" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U48" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="15" t="s">
         <v>68</v>
       </c>
@@ -5173,12 +5171,12 @@
         <v>91</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E49" s="42"/>
       <c r="F49" s="43"/>
       <c r="G49" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H49" s="10">
         <v>47</v>
@@ -5187,7 +5185,7 @@
         <v>108</v>
       </c>
       <c r="J49" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K49" s="31" t="s">
         <v>69</v>
@@ -5207,7 +5205,7 @@
       <c r="T49" s="5"/>
       <c r="U49" s="33"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21">
       <c r="A50" s="15" t="s">
         <v>68</v>
       </c>
@@ -5218,12 +5216,12 @@
         <v>91</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E50" s="42"/>
       <c r="F50" s="43"/>
       <c r="G50" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H50" s="10">
         <v>48</v>
@@ -5232,7 +5230,7 @@
         <v>108</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K50" s="31" t="s">
         <v>69</v>
@@ -5245,7 +5243,7 @@
       </c>
       <c r="N50" s="23"/>
       <c r="O50" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>19</v>
@@ -5260,13 +5258,13 @@
         <v>102</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U50" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21">
       <c r="A51" s="15" t="s">
         <v>68</v>
       </c>
@@ -5277,7 +5275,7 @@
         <v>91</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E51" s="42"/>
       <c r="F51" s="43"/>
@@ -5289,7 +5287,7 @@
         <v>108</v>
       </c>
       <c r="J51" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K51" s="31" t="s">
         <v>69</v>
@@ -5302,7 +5300,7 @@
       </c>
       <c r="N51" s="23"/>
       <c r="O51" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>20</v>
@@ -5317,13 +5315,13 @@
         <v>102</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U51" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21">
       <c r="A52" s="45"/>
       <c r="B52" s="46"/>
       <c r="C52" s="47"/>
@@ -5346,7 +5344,7 @@
       <c r="T52" s="5"/>
       <c r="U52" s="33"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21">
       <c r="A53" s="45"/>
       <c r="B53" s="46"/>
       <c r="C53" s="47"/>
@@ -5369,7 +5367,7 @@
       <c r="T53" s="5"/>
       <c r="U53" s="33"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21">
       <c r="A54" s="45"/>
       <c r="B54" s="46"/>
       <c r="C54" s="47"/>
@@ -5392,7 +5390,7 @@
       <c r="T54" s="5"/>
       <c r="U54" s="33"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21">
       <c r="A55" s="45"/>
       <c r="B55" s="46"/>
       <c r="C55" s="47"/>
@@ -5415,7 +5413,7 @@
       <c r="T55" s="5"/>
       <c r="U55" s="33"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21">
       <c r="A56" s="45"/>
       <c r="B56" s="46"/>
       <c r="C56" s="47"/>
@@ -5438,7 +5436,7 @@
       <c r="T56" s="5"/>
       <c r="U56" s="33"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21">
       <c r="A57" s="45"/>
       <c r="B57" s="46"/>
       <c r="C57" s="47"/>
@@ -5461,7 +5459,7 @@
       <c r="T57" s="5"/>
       <c r="U57" s="33"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21">
       <c r="A58" s="45"/>
       <c r="B58" s="46"/>
       <c r="C58" s="47"/>
@@ -5484,7 +5482,7 @@
       <c r="T58" s="5"/>
       <c r="U58" s="33"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21">
       <c r="A59" s="45"/>
       <c r="B59" s="46"/>
       <c r="C59" s="47"/>
@@ -5507,7 +5505,7 @@
       <c r="T59" s="5"/>
       <c r="U59" s="33"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21">
       <c r="A60" s="45"/>
       <c r="B60" s="46"/>
       <c r="C60" s="47"/>
@@ -5530,7 +5528,7 @@
       <c r="T60" s="5"/>
       <c r="U60" s="33"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21">
       <c r="A61" s="45"/>
       <c r="B61" s="46"/>
       <c r="C61" s="47"/>
@@ -5553,7 +5551,7 @@
       <c r="T61" s="5"/>
       <c r="U61" s="33"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21">
       <c r="A62" s="45"/>
       <c r="B62" s="46"/>
       <c r="C62" s="47"/>
@@ -5576,7 +5574,7 @@
       <c r="T62" s="5"/>
       <c r="U62" s="33"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21">
       <c r="A63" s="45"/>
       <c r="B63" s="46"/>
       <c r="C63" s="47"/>
@@ -5599,7 +5597,7 @@
       <c r="T63" s="5"/>
       <c r="U63" s="33"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21">
       <c r="A64" s="45"/>
       <c r="B64" s="46"/>
       <c r="C64" s="47"/>
@@ -5622,7 +5620,7 @@
       <c r="T64" s="5"/>
       <c r="U64" s="33"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21">
       <c r="A65" s="45"/>
       <c r="B65" s="46"/>
       <c r="C65" s="47"/>
@@ -5645,7 +5643,7 @@
       <c r="T65" s="5"/>
       <c r="U65" s="33"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21">
       <c r="A66" s="45"/>
       <c r="B66" s="46"/>
       <c r="C66" s="47"/>
@@ -5668,7 +5666,7 @@
       <c r="T66" s="5"/>
       <c r="U66" s="33"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21">
       <c r="A67" s="45"/>
       <c r="B67" s="46"/>
       <c r="C67" s="47"/>
@@ -5691,7 +5689,7 @@
       <c r="T67" s="5"/>
       <c r="U67" s="33"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21">
       <c r="A68" s="45"/>
       <c r="B68" s="46"/>
       <c r="C68" s="47"/>
@@ -5714,7 +5712,7 @@
       <c r="T68" s="5"/>
       <c r="U68" s="33"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21">
       <c r="A69" s="45"/>
       <c r="B69" s="46"/>
       <c r="C69" s="47"/>
@@ -5737,7 +5735,7 @@
       <c r="T69" s="5"/>
       <c r="U69" s="33"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21">
       <c r="A70" s="45"/>
       <c r="B70" s="46"/>
       <c r="C70" s="47"/>
@@ -5760,7 +5758,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="33"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21">
       <c r="A71" s="45"/>
       <c r="B71" s="46"/>
       <c r="C71" s="47"/>
@@ -5783,7 +5781,7 @@
       <c r="T71" s="5"/>
       <c r="U71" s="33"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21">
       <c r="A72" s="45"/>
       <c r="B72" s="46"/>
       <c r="C72" s="47"/>
@@ -5806,7 +5804,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="33"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21">
       <c r="A73" s="45"/>
       <c r="B73" s="46"/>
       <c r="C73" s="47"/>
@@ -5829,7 +5827,7 @@
       <c r="T73" s="5"/>
       <c r="U73" s="33"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21">
       <c r="A74" s="45"/>
       <c r="B74" s="46"/>
       <c r="C74" s="47"/>
@@ -5852,7 +5850,7 @@
       <c r="T74" s="5"/>
       <c r="U74" s="33"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21">
       <c r="A75" s="45"/>
       <c r="B75" s="46"/>
       <c r="C75" s="47"/>
@@ -5875,7 +5873,7 @@
       <c r="T75" s="5"/>
       <c r="U75" s="33"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21">
       <c r="A76" s="45"/>
       <c r="B76" s="46"/>
       <c r="C76" s="47"/>
@@ -5898,7 +5896,7 @@
       <c r="T76" s="5"/>
       <c r="U76" s="33"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21">
       <c r="A77" s="45"/>
       <c r="B77" s="46"/>
       <c r="C77" s="47"/>
@@ -5921,7 +5919,7 @@
       <c r="T77" s="5"/>
       <c r="U77" s="33"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21">
       <c r="A78" s="45"/>
       <c r="B78" s="46"/>
       <c r="C78" s="47"/>
@@ -5944,7 +5942,7 @@
       <c r="T78" s="5"/>
       <c r="U78" s="33"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21">
       <c r="A79" s="45"/>
       <c r="B79" s="46"/>
       <c r="C79" s="47"/>
@@ -5967,7 +5965,7 @@
       <c r="T79" s="5"/>
       <c r="U79" s="33"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21">
       <c r="A80" s="45"/>
       <c r="B80" s="46"/>
       <c r="C80" s="47"/>
@@ -5990,7 +5988,7 @@
       <c r="T80" s="5"/>
       <c r="U80" s="33"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21">
       <c r="A81" s="45"/>
       <c r="B81" s="46"/>
       <c r="C81" s="47"/>
@@ -6013,7 +6011,7 @@
       <c r="T81" s="5"/>
       <c r="U81" s="33"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21">
       <c r="A82" s="45"/>
       <c r="B82" s="46"/>
       <c r="C82" s="47"/>
@@ -6036,7 +6034,7 @@
       <c r="T82" s="5"/>
       <c r="U82" s="33"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21">
       <c r="A83" s="45"/>
       <c r="B83" s="46"/>
       <c r="C83" s="47"/>
@@ -6059,7 +6057,7 @@
       <c r="T83" s="5"/>
       <c r="U83" s="33"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21">
       <c r="A84" s="45"/>
       <c r="B84" s="46"/>
       <c r="C84" s="47"/>
@@ -6082,7 +6080,7 @@
       <c r="T84" s="5"/>
       <c r="U84" s="33"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21">
       <c r="A85" s="45"/>
       <c r="B85" s="46"/>
       <c r="C85" s="47"/>
@@ -6105,7 +6103,7 @@
       <c r="T85" s="5"/>
       <c r="U85" s="33"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21">
       <c r="A86" s="45"/>
       <c r="B86" s="46"/>
       <c r="C86" s="47"/>
@@ -6128,7 +6126,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="33"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21">
       <c r="A87" s="45"/>
       <c r="B87" s="46"/>
       <c r="C87" s="47"/>
@@ -6151,7 +6149,7 @@
       <c r="T87" s="5"/>
       <c r="U87" s="33"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21">
       <c r="A88" s="45"/>
       <c r="B88" s="46"/>
       <c r="C88" s="47"/>
@@ -6174,7 +6172,7 @@
       <c r="T88" s="5"/>
       <c r="U88" s="33"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21">
       <c r="A89" s="45"/>
       <c r="B89" s="46"/>
       <c r="C89" s="47"/>
@@ -6197,7 +6195,7 @@
       <c r="T89" s="5"/>
       <c r="U89" s="33"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21">
       <c r="A90" s="45"/>
       <c r="B90" s="46"/>
       <c r="C90" s="47"/>
@@ -6220,7 +6218,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="33"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21">
       <c r="A91" s="45"/>
       <c r="B91" s="46"/>
       <c r="C91" s="47"/>
@@ -6248,11 +6246,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -6268,9 +6261,13 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6281,23 +6278,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.46484375" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -6320,7 +6317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>34</v>
@@ -6341,7 +6338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>35</v>
@@ -6362,7 +6359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>36</v>
@@ -6379,7 +6376,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>37</v>
@@ -6396,7 +6393,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>38</v>
@@ -6411,7 +6408,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>39</v>
@@ -6424,7 +6421,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>40</v>
@@ -6437,7 +6434,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>41</v>
@@ -6450,7 +6447,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>42</v>
@@ -6463,7 +6460,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>43</v>
@@ -6478,7 +6475,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>44</v>
@@ -6493,7 +6490,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>45</v>
@@ -6508,7 +6505,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>46</v>
@@ -6523,7 +6520,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
@@ -6536,7 +6533,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
@@ -6549,7 +6546,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
@@ -6562,7 +6559,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
@@ -6575,7 +6572,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -6588,7 +6585,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
@@ -6601,7 +6598,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
@@ -6614,7 +6611,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
@@ -6627,7 +6624,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
@@ -6640,7 +6637,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
@@ -6653,7 +6650,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
@@ -6664,7 +6661,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -6675,7 +6672,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
@@ -6686,7 +6683,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
@@ -6697,7 +6694,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
@@ -6708,7 +6705,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
@@ -6719,7 +6716,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
@@ -6730,7 +6727,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
@@ -6741,7 +6738,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
@@ -6752,7 +6749,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
@@ -6763,7 +6760,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -6774,7 +6771,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
@@ -6785,7 +6782,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
@@ -6796,7 +6793,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
@@ -6807,7 +6804,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
@@ -6818,7 +6815,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6827,7 +6824,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6836,7 +6833,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6845,7 +6842,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -6854,7 +6851,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -6863,7 +6860,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -6872,7 +6869,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -6881,7 +6878,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -6890,7 +6887,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -6899,7 +6896,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -6908,7 +6905,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>

--- a/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Luis Felipe Pertuz Urrego</author>
+  </authors>
+  <commentList>
+    <comment ref="U28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Luis Felipe Pertuz Urrego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Los recursos señalados en verde fueron realizados por Helena Castaño, que se retiró del proyecto y no los ha cobrado. De no ser pagados deberán elaborarse nuevamente.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="321">
   <si>
     <t>Asignatura</t>
   </si>
@@ -868,9 +902,6 @@
     <t xml:space="preserve">El interactivo debe presentar una explicación completa de la metáfora y NO contentarse con hablar exclusivamente de la metáfora en términos literarios. Conviene comenzar con la etimología del término "metáfora", y utilizar ejemplos desde el principio. Usar imágenes relacionadas con los contenidos textuales como apoyo explicativo y también para aligerar la lectura teórica. </t>
   </si>
   <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: Semántica: la metáfora </t>
-  </si>
-  <si>
     <t>Recurso M101A-01</t>
   </si>
   <si>
@@ -1000,9 +1031,6 @@
     <t>Recurso M101A-02</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Expresión oral: el conversatorio</t>
-  </si>
-  <si>
     <t>NUEVO</t>
   </si>
   <si>
@@ -1109,9 +1137,6 @@
     <t>Cambiar expresiones al "español colombiano", también en las fichas. Cambiar el color de la letra en la 5ª diapositiva para que no se pierda con la imagen.</t>
   </si>
   <si>
-    <t>(DBA: 1,2,4) Proponer fragmentos de discursos del ámbito de los medios de comunicación para ser grabados; convendría que fueran fragmentos de medios reales y, dado el formato, buscar sobre todo fuentes radiales. El estudiante deberá responder de cada uno si se trata de un discurso "Expositivo" o uno "Narrativo".</t>
-  </si>
-  <si>
     <t>Recurso M12B-01</t>
   </si>
   <si>
@@ -1152,9 +1177,6 @@
   </si>
   <si>
     <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Comunicación: los discursos expositivos y narrativos en los medios de comunicación</t>
   </si>
   <si>
     <t>Recurso M4A-01</t>
@@ -1234,9 +1256,6 @@
     <t>Recurso M101A-04</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Ética y comunicación: el multiculturalismo</t>
-  </si>
-  <si>
     <t>Actividad para reafirmar la noción de multiculturalismo</t>
   </si>
   <si>
@@ -1271,13 +1290,31 @@
   </si>
   <si>
     <t>Recurso M101A-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(DBA: 1,2,4) Proponer fragmentos de discursos del ámbito de los medios de comunicación para ser grabados. El estudiante deberá responder de cada uno si se trata de un discurso "Expositivo" o uno "Narrativo".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: La metáfora </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El conversatorio</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El multiculturalismo</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los discursos expositivos y narrativos en los medios de comunicación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1336,8 +1373,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1390,6 +1440,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1793,7 +1867,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1802,7 +1876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1842,11 +1915,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1855,6 +1924,63 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2280,351 +2406,351 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="D32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="24.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="24.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="11" customWidth="1"/>
     <col min="8" max="9" width="4.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="65.6640625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" style="48" customWidth="1"/>
-    <col min="13" max="13" width="6" style="48" customWidth="1"/>
-    <col min="14" max="14" width="6" style="12" customWidth="1"/>
-    <col min="15" max="15" width="60" style="12" customWidth="1"/>
+    <col min="10" max="10" width="65.6640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="43" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="6" style="43" customWidth="1"/>
+    <col min="14" max="14" width="6" style="11" customWidth="1"/>
+    <col min="15" max="15" width="60" style="11" customWidth="1"/>
     <col min="16" max="16" width="7.33203125" style="2" customWidth="1"/>
-    <col min="17" max="21" width="13.1640625" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="12"/>
+    <col min="17" max="21" width="13.1640625" style="11" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="91"/>
+      <c r="O1" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="89" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="14" customFormat="1" ht="15" thickBot="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="13" t="s">
+    <row r="2" spans="1:21" s="13" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="23">
         <v>6</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>2</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="30" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="23">
         <v>6</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="51">
         <v>3</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="30" t="s">
+      <c r="N5" s="53"/>
+      <c r="O5" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="55">
         <v>6</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="56" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="H6" s="10">
-        <v>4</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="31">
         <v>6</v>
       </c>
       <c r="R6" s="5" t="s">
@@ -2634,56 +2760,56 @@
         <v>102</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="U6" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="U6" s="32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>5</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="P7" s="11" t="s">
+      <c r="N7" s="22"/>
+      <c r="O7" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="31">
         <v>6</v>
       </c>
       <c r="R7" s="5" t="s">
@@ -2695,298 +2821,298 @@
       <c r="T7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="U7" s="32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="51">
         <v>6</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="30" t="s">
+      <c r="N8" s="53"/>
+      <c r="O8" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="55">
         <v>6</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="56" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="28" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="51">
         <v>7</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="30" t="s">
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="Q9" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="U9" s="37" t="s">
+      <c r="U9" s="60" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="51">
         <v>8</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="38" t="s">
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="T10" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="56" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>9</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="39" t="s">
+      <c r="N11" s="22"/>
+      <c r="O11" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="23">
         <v>6</v>
       </c>
-      <c r="R11" s="24" t="s">
+      <c r="R11" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="T11" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="U11" s="25" t="s">
+      <c r="U11" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>10</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23" t="s">
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="31" t="s">
         <v>96</v>
       </c>
       <c r="R12" s="5" t="s">
@@ -2998,56 +3124,56 @@
       <c r="T12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="U12" s="33" t="s">
+      <c r="U12" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>11</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="30" t="s">
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="31" t="s">
         <v>96</v>
       </c>
       <c r="R13" s="5" t="s">
@@ -3059,56 +3185,56 @@
       <c r="T13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="U13" s="33" t="s">
+      <c r="U13" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>12</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="30" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="Q14" s="31" t="s">
         <v>96</v>
       </c>
       <c r="R14" s="5" t="s">
@@ -3120,117 +3246,117 @@
       <c r="T14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U14" s="33" t="s">
+      <c r="U14" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="51">
         <v>13</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="30" t="s">
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="U15" s="33" t="s">
+      <c r="U15" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>14</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="31" t="s">
         <v>96</v>
       </c>
       <c r="R16" s="5" t="s">
@@ -3242,56 +3368,56 @@
       <c r="T16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="U16" s="33" t="s">
+      <c r="U16" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>15</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23" t="s">
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="31" t="s">
         <v>96</v>
       </c>
       <c r="R17" s="5" t="s">
@@ -3303,56 +3429,56 @@
       <c r="T17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="U17" s="33" t="s">
+      <c r="U17" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>16</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="30" t="s">
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="32" t="s">
+      <c r="Q18" s="31" t="s">
         <v>96</v>
       </c>
       <c r="R18" s="5" t="s">
@@ -3364,115 +3490,115 @@
       <c r="T18" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="U18" s="33" t="s">
+      <c r="U18" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="51">
         <v>17</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="30" t="s">
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="32" t="s">
+      <c r="Q19" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="U19" s="33" t="s">
+      <c r="U19" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>18</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="30" t="s">
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="32" t="s">
+      <c r="Q20" s="31" t="s">
         <v>96</v>
       </c>
       <c r="R20" s="5" t="s">
@@ -3484,54 +3610,54 @@
       <c r="T20" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="U20" s="33" t="s">
+      <c r="U20" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>19</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="30" t="s">
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="32" t="s">
+      <c r="Q21" s="31" t="s">
         <v>96</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -3543,113 +3669,113 @@
       <c r="T21" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="U21" s="33" t="s">
+      <c r="U21" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28" t="s">
+      <c r="F22" s="49"/>
+      <c r="G22" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="51">
         <v>20</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="30" t="s">
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="32" t="s">
+      <c r="Q22" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="U22" s="33" t="s">
+      <c r="U22" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>21</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23" t="s">
+      <c r="M23" s="22"/>
+      <c r="N23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="30" t="s">
+      <c r="O23" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="32">
+      <c r="Q23" s="31">
         <v>6</v>
       </c>
       <c r="R23" s="5" t="s">
@@ -3661,54 +3787,54 @@
       <c r="T23" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="U23" s="33" t="s">
+      <c r="U23" s="32" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="9">
+        <v>22</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="H24" s="10">
-        <v>22</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="N24" s="23"/>
-      <c r="O24" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="P24" s="11" t="s">
+      <c r="N24" s="22"/>
+      <c r="O24" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="P24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="31">
         <v>6</v>
       </c>
       <c r="R24" s="5" t="s">
@@ -3718,174 +3844,174 @@
         <v>102</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="U24" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="U24" s="32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28" t="s">
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="51">
+        <v>23</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="P25" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="R25" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S25" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="T25" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="U25" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="H25" s="10">
-        <v>23</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="28" t="s">
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="9">
+        <v>24</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="31" t="s">
         <v>211</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="U25" s="33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="H26" s="10">
-        <v>24</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="K26" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="32" t="s">
-        <v>212</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S26" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="T26" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="U26" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="U26" s="33" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="F27" s="26"/>
+      <c r="G27" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="H27" s="9">
         <v>25</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="22"/>
+      <c r="O27" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="K27" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="31">
         <v>6</v>
       </c>
       <c r="R27" s="5" t="s">
@@ -3895,725 +4021,725 @@
         <v>102</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="U27" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="U27" s="32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="26" t="s">
+      <c r="D28" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" s="68">
+        <v>26</v>
+      </c>
+      <c r="I28" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" s="70"/>
+      <c r="O28" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="72">
+        <v>6</v>
+      </c>
+      <c r="R28" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="S28" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="T28" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="H28" s="10">
-        <v>26</v>
-      </c>
-      <c r="I28" s="10" t="s">
+      <c r="U28" s="73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="H29" s="68">
+        <v>27</v>
+      </c>
+      <c r="I29" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="P29" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="72">
+        <v>6</v>
+      </c>
+      <c r="R29" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="S29" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="T29" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="U29" s="73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="H30" s="68">
+        <v>28</v>
+      </c>
+      <c r="I30" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K28" s="31" t="s">
+      <c r="J30" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="L30" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="P28" s="11" t="s">
+      <c r="M30" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="70"/>
+      <c r="O30" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="P30" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q30" s="72">
         <v>6</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R30" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="S30" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="T28" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="U28" s="33" t="s">
+      <c r="T30" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="U30" s="73" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="15" t="s">
+    <row r="31" spans="1:21">
+      <c r="A31" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="H29" s="10">
-        <v>27</v>
-      </c>
-      <c r="I29" s="10" t="s">
+      <c r="D31" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="H31" s="9">
+        <v>29</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" s="30" t="s">
+      <c r="J31" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="P29" s="11" t="s">
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="P31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="32">
-        <v>6</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="U29" s="33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" s="10">
-        <v>28</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N30" s="23"/>
-      <c r="O30" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="32">
-        <v>6</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="U30" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="H31" s="10">
-        <v>29</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="32" t="s">
-        <v>207</v>
+      <c r="Q31" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S31" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="U31" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="T31" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="U31" s="33" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28" t="s">
+      <c r="F32" s="49"/>
+      <c r="G32" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" s="51">
+        <v>30</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" s="53"/>
+      <c r="O32" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="P32" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="57">
+        <v>6</v>
+      </c>
+      <c r="R32" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="S32" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="T32" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="U32" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="9">
+        <v>31</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="H32" s="10">
-        <v>30</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="P32" s="11" t="s">
+      <c r="K33" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="P33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="32">
-        <v>6</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="U32" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="H33" s="10">
-        <v>31</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="K33" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="P33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="32" t="s">
-        <v>207</v>
+      <c r="Q33" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S33" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="U33" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="T33" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="U33" s="33" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" s="51">
+        <v>32</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34" s="53"/>
+      <c r="O34" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="P34" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="57">
+        <v>6</v>
+      </c>
+      <c r="R34" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="S34" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="T34" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="U34" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" s="9">
+        <v>33</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="H34" s="10">
-        <v>32</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="P34" s="11" t="s">
+      <c r="K35" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="P35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="32">
-        <v>6</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="U34" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="10">
-        <v>33</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="32" t="s">
-        <v>207</v>
+      <c r="Q35" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S35" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="U35" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="T35" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="U35" s="33" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28" t="s">
+      <c r="D36" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="H36" s="51">
+        <v>34</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="H36" s="10">
-        <v>34</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J36" s="21" t="s">
+      <c r="K36" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" s="53"/>
+      <c r="O36" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="P36" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="57">
+        <v>6</v>
+      </c>
+      <c r="R36" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="S36" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="T36" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="U36" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="H37" s="9">
+        <v>35</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="K36" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" s="23"/>
-      <c r="O36" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="P36" s="11" t="s">
+      <c r="K37" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="P37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="32">
-        <v>6</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="U36" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="H37" s="10">
-        <v>35</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J37" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="32" t="s">
-        <v>207</v>
+      <c r="Q37" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S37" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="U37" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="T37" s="5" t="s">
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="H38" s="51">
+        <v>36</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="U37" s="33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="15" t="s">
+      <c r="P38" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="R38" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S38" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="T38" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="U38" s="58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="H38" s="10">
-        <v>36</v>
-      </c>
-      <c r="I38" s="10" t="s">
+      <c r="D39" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="H39" s="9">
+        <v>37</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J38" s="29" t="s">
+      <c r="J39" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="K38" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L38" s="30" t="s">
+      <c r="K39" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="P38" s="11" t="s">
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="P39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="U38" s="33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="H39" s="10">
-        <v>37</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J39" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="K39" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L39" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="32">
+      <c r="Q39" s="31">
         <v>6</v>
       </c>
       <c r="R39" s="5" t="s">
@@ -4623,355 +4749,359 @@
         <v>102</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="U39" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="U39" s="32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E40" s="26" t="s">
+      <c r="D40" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28" t="s">
+      <c r="F40" s="82"/>
+      <c r="G40" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="H40" s="83">
+        <v>38</v>
+      </c>
+      <c r="I40" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="81" t="s">
+        <v>286</v>
+      </c>
+      <c r="K40" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="85"/>
+      <c r="O40" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="P40" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="87">
+        <v>6</v>
+      </c>
+      <c r="R40" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="S40" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="T40" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="U40" s="88" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F41" s="49"/>
+      <c r="G41" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="H40" s="10">
-        <v>38</v>
-      </c>
-      <c r="I40" s="10" t="s">
+      <c r="H41" s="51">
+        <v>39</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="P41" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="57">
+        <v>6</v>
+      </c>
+      <c r="R41" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="S41" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="T41" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="U41" s="58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="36" customFormat="1">
+      <c r="A42" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="51">
+        <v>40</v>
+      </c>
+      <c r="I42" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J40" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="K40" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L40" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="P40" s="11" t="s">
+      <c r="J42" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="L42" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="M42" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="53"/>
+      <c r="O42" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="P42" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="55">
+        <v>6</v>
+      </c>
+      <c r="R42" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="S42" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="T42" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="U42" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="H43" s="51">
+        <v>41</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="L43" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="M43" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="53"/>
+      <c r="O43" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="P43" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="57">
+        <v>6</v>
+      </c>
+      <c r="R43" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="S43" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="T43" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="U43" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="H44" s="51">
+        <v>42</v>
+      </c>
+      <c r="I44" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="L44" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="M44" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="N44" s="53"/>
+      <c r="O44" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="P44" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="32">
+      <c r="Q44" s="57">
         <v>6</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R44" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="S40" s="5" t="s">
+      <c r="S44" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="T40" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="U40" s="33" t="s">
+      <c r="T44" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="U44" s="58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="15" t="s">
+    <row r="45" spans="1:21">
+      <c r="A45" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="H41" s="10">
-        <v>39</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J41" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="K41" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="O41" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="P41" s="11" t="s">
+      <c r="D45" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="9">
+        <v>43</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L45" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="P45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="32">
-        <v>6</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="U41" s="33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="41" customFormat="1">
-      <c r="A42" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="H42" s="10">
-        <v>40</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J42" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="K42" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="L42" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="23"/>
-      <c r="O42" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q42" s="24">
-        <v>6</v>
-      </c>
-      <c r="R42" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S42" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="T42" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="U42" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="H43" s="10">
-        <v>41</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J43" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="K43" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="L43" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="M43" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N43" s="23"/>
-      <c r="O43" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q43" s="32">
-        <v>6</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="U43" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="H44" s="10">
-        <v>42</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J44" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="K44" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="L44" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="M44" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N44" s="23"/>
-      <c r="O44" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="32">
-        <v>6</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="U44" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" s="10">
-        <v>43</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K45" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L45" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="32" t="s">
+      <c r="Q45" s="31" t="s">
         <v>96</v>
       </c>
       <c r="R45" s="5" t="s">
@@ -4983,52 +5113,52 @@
       <c r="T45" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="U45" s="33" t="s">
+      <c r="U45" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="28" t="s">
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>44</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J46" s="29" t="s">
+      <c r="J46" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L46" s="30" t="s">
+      <c r="L46" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="P46" s="11" t="s">
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="P46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q46" s="32" t="s">
+      <c r="Q46" s="31" t="s">
         <v>96</v>
       </c>
       <c r="R46" s="5" t="s">
@@ -5040,215 +5170,215 @@
       <c r="T46" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="U46" s="33" t="s">
+      <c r="U46" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="28" t="s">
+      <c r="E47" s="75"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="H47" s="51">
+        <v>45</v>
+      </c>
+      <c r="I47" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="L47" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="M47" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="53"/>
+      <c r="O47" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="H47" s="10">
-        <v>45</v>
-      </c>
-      <c r="I47" s="10" t="s">
+      <c r="P47" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="57">
+        <v>6</v>
+      </c>
+      <c r="R47" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="S47" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="T47" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="U47" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="75"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="H48" s="51">
+        <v>46</v>
+      </c>
+      <c r="I48" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J47" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="L47" s="30" t="s">
+      <c r="J48" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="L48" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="M47" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="N47" s="23"/>
-      <c r="O47" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="P47" s="11" t="s">
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="P48" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="32">
-        <v>6</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="U47" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="15" t="s">
+      <c r="Q48" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="R48" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S48" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="T48" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="U48" s="58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="H48" s="10">
-        <v>46</v>
-      </c>
-      <c r="I48" s="10" t="s">
+      <c r="D49" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="E49" s="37"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="H49" s="9">
+        <v>47</v>
+      </c>
+      <c r="I49" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J48" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="K48" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L48" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="P48" s="11" t="s">
+      <c r="J49" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="U48" s="33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="H49" s="10">
-        <v>47</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="K49" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L49" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q49" s="32"/>
+      <c r="Q49" s="31"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="33"/>
+      <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D50" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="H50" s="9">
+        <v>48</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="22"/>
+      <c r="O50" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="H50" s="10">
-        <v>48</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J50" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="K50" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="N50" s="23"/>
-      <c r="O50" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q50" s="32">
+      <c r="Q50" s="31">
         <v>6</v>
       </c>
       <c r="R50" s="5" t="s">
@@ -5258,54 +5388,54 @@
         <v>102</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="U50" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="U50" s="32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="10">
+      <c r="D51" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="9">
         <v>49</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J51" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="K51" s="31" t="s">
+      <c r="J51" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="K51" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M51" s="23" t="s">
+      <c r="M51" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N51" s="23"/>
-      <c r="O51" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="P51" s="11" t="s">
+      <c r="N51" s="22"/>
+      <c r="O51" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="P51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="32">
+      <c r="Q51" s="31">
         <v>6</v>
       </c>
       <c r="R51" s="5" t="s">
@@ -5315,937 +5445,942 @@
         <v>102</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="U51" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="U51" s="32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="45"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="32"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="31"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="33"/>
+      <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="45"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="32"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="31"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="33"/>
+      <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="45"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="32"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="31"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="33"/>
+      <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="32"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="31"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="33"/>
+      <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="45"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="32"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="31"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="33"/>
+      <c r="U56" s="32"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="45"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="32"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="31"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="33"/>
+      <c r="U57" s="32"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="45"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="32"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="31"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="33"/>
+      <c r="U58" s="32"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="45"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="32"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="31"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="33"/>
+      <c r="U59" s="32"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="45"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="32"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="31"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="33"/>
+      <c r="U60" s="32"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="32"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="31"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="33"/>
+      <c r="U61" s="32"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="45"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="32"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="31"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="33"/>
+      <c r="U62" s="32"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="45"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="32"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="31"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="33"/>
+      <c r="U63" s="32"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="45"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="32"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="31"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="33"/>
+      <c r="U64" s="32"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="45"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="32"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="31"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="33"/>
+      <c r="U65" s="32"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="45"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="32"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="31"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="33"/>
+      <c r="U66" s="32"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="45"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="32"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="31"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
-      <c r="U67" s="33"/>
+      <c r="U67" s="32"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="45"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="32"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="31"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
-      <c r="U68" s="33"/>
+      <c r="U68" s="32"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="45"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="32"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="31"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
-      <c r="U69" s="33"/>
+      <c r="U69" s="32"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="45"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="32"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="31"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="33"/>
+      <c r="U70" s="32"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="45"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="32"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="31"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
-      <c r="U71" s="33"/>
+      <c r="U71" s="32"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="45"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="32"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="31"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
-      <c r="U72" s="33"/>
+      <c r="U72" s="32"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="32"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="31"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
-      <c r="U73" s="33"/>
+      <c r="U73" s="32"/>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="45"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="32"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="31"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
-      <c r="U74" s="33"/>
+      <c r="U74" s="32"/>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="45"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="32"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="31"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
-      <c r="U75" s="33"/>
+      <c r="U75" s="32"/>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="45"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="32"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="31"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
-      <c r="U76" s="33"/>
+      <c r="U76" s="32"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="45"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="32"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="31"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
-      <c r="U77" s="33"/>
+      <c r="U77" s="32"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="45"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="32"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="31"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
-      <c r="U78" s="33"/>
+      <c r="U78" s="32"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="45"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="30"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="32"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="31"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
-      <c r="U79" s="33"/>
+      <c r="U79" s="32"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="45"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="30"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="32"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="31"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
-      <c r="U80" s="33"/>
+      <c r="U80" s="32"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="45"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="30"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="32"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="31"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
-      <c r="U81" s="33"/>
+      <c r="U81" s="32"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="45"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="32"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="31"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
-      <c r="U82" s="33"/>
+      <c r="U82" s="32"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="45"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="32"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="31"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
-      <c r="U83" s="33"/>
+      <c r="U83" s="32"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="45"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="32"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="31"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
-      <c r="U84" s="33"/>
+      <c r="U84" s="32"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="45"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="32"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="31"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
-      <c r="U85" s="33"/>
+      <c r="U85" s="32"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="45"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="32"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="31"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
-      <c r="U86" s="33"/>
+      <c r="U86" s="32"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="45"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="23"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="32"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="31"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
-      <c r="U87" s="33"/>
+      <c r="U87" s="32"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="45"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="30"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="32"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="31"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
-      <c r="U88" s="33"/>
+      <c r="U88" s="32"/>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="45"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="31"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="32"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="31"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
-      <c r="U89" s="33"/>
+      <c r="U89" s="32"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="45"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="31"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="30"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="32"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="31"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
-      <c r="U90" s="33"/>
+      <c r="U90" s="32"/>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="45"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="32"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="31"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
-      <c r="U91" s="33"/>
+      <c r="U91" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U51">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -6261,13 +6396,9 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6295,43 +6426,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -6339,20 +6470,20 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -6360,432 +6491,432 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="4"/>
       <c r="M14" s="1"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="M15" s="1"/>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="4"/>
       <c r="M16" s="1"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="M17" s="1"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="4"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="4"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="4"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D37" s="4"/>
